--- a/ref.xlsx
+++ b/ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashini De Silva\Desktop\MyResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3445F-70FC-4BB3-AD60-A54E1F9726EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6D01E6-F90C-4476-BF97-286A36B61A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{47A66A67-FAEA-42A3-92A7-16C6D3F4574D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{47A66A67-FAEA-42A3-92A7-16C6D3F4574D}"/>
   </bookViews>
   <sheets>
     <sheet name="seed_collection" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="2663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="3576">
   <si>
     <t>Protein label</t>
   </si>
@@ -8025,13 +8025,2752 @@
   </si>
   <si>
     <t>5-methyltetrahydropteroyltriglutamate--homocysteine methyltransferase, putative, expressed</t>
+  </si>
+  <si>
+    <t>Os04g0653600</t>
+  </si>
+  <si>
+    <t>Os05g0121600</t>
+  </si>
+  <si>
+    <t>Os06g0639200</t>
+  </si>
+  <si>
+    <t>Os11g0129700</t>
+  </si>
+  <si>
+    <t>Os03g0313100</t>
+  </si>
+  <si>
+    <t>Os01g0195000</t>
+  </si>
+  <si>
+    <t>Os01g0778100</t>
+  </si>
+  <si>
+    <t>Os01g0839100</t>
+  </si>
+  <si>
+    <t>Os01g0859100</t>
+  </si>
+  <si>
+    <t>Os01g0909500</t>
+  </si>
+  <si>
+    <t>Os01g0935000</t>
+  </si>
+  <si>
+    <t>Os02g0659500</t>
+  </si>
+  <si>
+    <t>Os02g0672100</t>
+  </si>
+  <si>
+    <t>Os04g0690100</t>
+  </si>
+  <si>
+    <t>Os05g0460900</t>
+  </si>
+  <si>
+    <t>Os05g0597100</t>
+  </si>
+  <si>
+    <t>Os06g0304200</t>
+  </si>
+  <si>
+    <t>Os06g0612300</t>
+  </si>
+  <si>
+    <t>Os07g0101800</t>
+  </si>
+  <si>
+    <t>Os07g0569700</t>
+  </si>
+  <si>
+    <t>Os07g0588700</t>
+  </si>
+  <si>
+    <t>Os08g0485700</t>
+  </si>
+  <si>
+    <t>Os08g0554400</t>
+  </si>
+  <si>
+    <t>Os09g0449400</t>
+  </si>
+  <si>
+    <t>Os09g0558800</t>
+  </si>
+  <si>
+    <t>Os10g0158700</t>
+  </si>
+  <si>
+    <t>Os10g0419200</t>
+  </si>
+  <si>
+    <t>Os12g0279100</t>
+  </si>
+  <si>
+    <t>Os12g0583700</t>
+  </si>
+  <si>
+    <t>Os01g0277500</t>
+  </si>
+  <si>
+    <t>Os02g0673700</t>
+  </si>
+  <si>
+    <t>Os02g0726300</t>
+  </si>
+  <si>
+    <t>Os03g0169600</t>
+  </si>
+  <si>
+    <t>Os03g0821200</t>
+  </si>
+  <si>
+    <t>Os05g0112200</t>
+  </si>
+  <si>
+    <t>Os07g0236700</t>
+  </si>
+  <si>
+    <t>Os07g0508900</t>
+  </si>
+  <si>
+    <t>Os07g0685000</t>
+  </si>
+  <si>
+    <t>Os08g0490100</t>
+  </si>
+  <si>
+    <t>Os10g0406300</t>
+  </si>
+  <si>
+    <t>Os10g0496000</t>
+  </si>
+  <si>
+    <t>Os02g0729700</t>
+  </si>
+  <si>
+    <t>Os09g0470500</t>
+  </si>
+  <si>
+    <t>Os03g0188900</t>
+  </si>
+  <si>
+    <t>Os10g0404900</t>
+  </si>
+  <si>
+    <t>Os10g0561800</t>
+  </si>
+  <si>
+    <t>Os10g0103700</t>
+  </si>
+  <si>
+    <t>Os04g0541700</t>
+  </si>
+  <si>
+    <t>Os06g0140700</t>
+  </si>
+  <si>
+    <t>Os09g0528200</t>
+  </si>
+  <si>
+    <t>Os03g0198600</t>
+  </si>
+  <si>
+    <t>Os08g0187500</t>
+  </si>
+  <si>
+    <t>Os04g0627000</t>
+  </si>
+  <si>
+    <t>Os08g0136100</t>
+  </si>
+  <si>
+    <t>Os09g0526200</t>
+  </si>
+  <si>
+    <t>Os12g0612700</t>
+  </si>
+  <si>
+    <t>Os10g0480200</t>
+  </si>
+  <si>
+    <t>Os10g0575600</t>
+  </si>
+  <si>
+    <t>Os08g0292000</t>
+  </si>
+  <si>
+    <t>Os01g0788800</t>
+  </si>
+  <si>
+    <t>Os01g0159800</t>
+  </si>
+  <si>
+    <t>Os01g0293100</t>
+  </si>
+  <si>
+    <t>Os01g0575200</t>
+  </si>
+  <si>
+    <t>Os01g0915600</t>
+  </si>
+  <si>
+    <t>Os01g0928000</t>
+  </si>
+  <si>
+    <t>Os02g0564700</t>
+  </si>
+  <si>
+    <t>Os02g0710300</t>
+  </si>
+  <si>
+    <t>Os02g0726700</t>
+  </si>
+  <si>
+    <t>Os02g0747900</t>
+  </si>
+  <si>
+    <t>Os02g0759000</t>
+  </si>
+  <si>
+    <t>Os02g0795800</t>
+  </si>
+  <si>
+    <t>Os02g0805250</t>
+  </si>
+  <si>
+    <t>Os03g0231950</t>
+  </si>
+  <si>
+    <t>Os03g0279500</t>
+  </si>
+  <si>
+    <t>Os03g0391700</t>
+  </si>
+  <si>
+    <t>Os03g0639300</t>
+  </si>
+  <si>
+    <t>Os03g0725800</t>
+  </si>
+  <si>
+    <t>Os03g0728900</t>
+  </si>
+  <si>
+    <t>Os03g0797600</t>
+  </si>
+  <si>
+    <t>Os03g0811400</t>
+  </si>
+  <si>
+    <t>Os04g0557500</t>
+  </si>
+  <si>
+    <t>Os04g0599300</t>
+  </si>
+  <si>
+    <t>Os05g0455400</t>
+  </si>
+  <si>
+    <t>Os05g0501200</t>
+  </si>
+  <si>
+    <t>Os06g0193400</t>
+  </si>
+  <si>
+    <t>Os06g0275600</t>
+  </si>
+  <si>
+    <t>Os06g0724800</t>
+  </si>
+  <si>
+    <t>Os07g0143200</t>
+  </si>
+  <si>
+    <t>Os07g0193800</t>
+  </si>
+  <si>
+    <t>Os07g0549600</t>
+  </si>
+  <si>
+    <t>Os08g0490000</t>
+  </si>
+  <si>
+    <t>Os08g0506700</t>
+  </si>
+  <si>
+    <t>Os09g0417400</t>
+  </si>
+  <si>
+    <t>Os09g0474100</t>
+  </si>
+  <si>
+    <t>Os09g0487900</t>
+  </si>
+  <si>
+    <t>Os09g0501600</t>
+  </si>
+  <si>
+    <t>Os10g0544200</t>
+  </si>
+  <si>
+    <t>Os10g0575000</t>
+  </si>
+  <si>
+    <t>Os11g0158500</t>
+  </si>
+  <si>
+    <t>Os12g0632600</t>
+  </si>
+  <si>
+    <t>Os01g0236300</t>
+  </si>
+  <si>
+    <t>Os01g0670800</t>
+  </si>
+  <si>
+    <t>Os01g0753500</t>
+  </si>
+  <si>
+    <t>Os01g0927600</t>
+  </si>
+  <si>
+    <t>Os02g0141100</t>
+  </si>
+  <si>
+    <t>Os02g0164900</t>
+  </si>
+  <si>
+    <t>Os02g0628600</t>
+  </si>
+  <si>
+    <t>Os04g0442000</t>
+  </si>
+  <si>
+    <t>Os04g0671900</t>
+  </si>
+  <si>
+    <t>Os05g0515400</t>
+  </si>
+  <si>
+    <t>Os05g0563400</t>
+  </si>
+  <si>
+    <t>Os06g0196700</t>
+  </si>
+  <si>
+    <t>Os06g0685700</t>
+  </si>
+  <si>
+    <t>Os06g0702600</t>
+  </si>
+  <si>
+    <t>Os08g0520500</t>
+  </si>
+  <si>
+    <t>Os12g0479400</t>
+  </si>
+  <si>
+    <t>Os01g0174600</t>
+  </si>
+  <si>
+    <t>Os01g0192000</t>
+  </si>
+  <si>
+    <t>Os01g0645000</t>
+  </si>
+  <si>
+    <t>Os01g0738400</t>
+  </si>
+  <si>
+    <t>Os04g0117600</t>
+  </si>
+  <si>
+    <t>Os05g0128200</t>
+  </si>
+  <si>
+    <t>Os05g0195200</t>
+  </si>
+  <si>
+    <t>Os05g0497500</t>
+  </si>
+  <si>
+    <t>Os05g0525900</t>
+  </si>
+  <si>
+    <t>Os06g0677700</t>
+  </si>
+  <si>
+    <t>Os10g0391300</t>
+  </si>
+  <si>
+    <t>Os01g0542700</t>
+  </si>
+  <si>
+    <t>Os01g0658900</t>
+  </si>
+  <si>
+    <t>Os01g0756200</t>
+  </si>
+  <si>
+    <t>Os01g0801901</t>
+  </si>
+  <si>
+    <t>Os01g0859300</t>
+  </si>
+  <si>
+    <t>Os01g0859500</t>
+  </si>
+  <si>
+    <t>Os01g0867300</t>
+  </si>
+  <si>
+    <t>Os02g0132500</t>
+  </si>
+  <si>
+    <t>Os02g0175100</t>
+  </si>
+  <si>
+    <t>Os02g0766700</t>
+  </si>
+  <si>
+    <t>Os02g0833600</t>
+  </si>
+  <si>
+    <t>Os03g0127500</t>
+  </si>
+  <si>
+    <t>Os03g0796900</t>
+  </si>
+  <si>
+    <t>Os03g0809200</t>
+  </si>
+  <si>
+    <t>Os04g0181300</t>
+  </si>
+  <si>
+    <t>Os04g0495500</t>
+  </si>
+  <si>
+    <t>Os04g0637000</t>
+  </si>
+  <si>
+    <t>Os05g0495200</t>
+  </si>
+  <si>
+    <t>Os05g0569300</t>
+  </si>
+  <si>
+    <t>Os06g0265400</t>
+  </si>
+  <si>
+    <t>Os06g0662200</t>
+  </si>
+  <si>
+    <t>Os07g0182000</t>
+  </si>
+  <si>
+    <t>Os07g0687700</t>
+  </si>
+  <si>
+    <t>Os08g0176900</t>
+  </si>
+  <si>
+    <t>Os08g0357300</t>
+  </si>
+  <si>
+    <t>Os09g0306400</t>
+  </si>
+  <si>
+    <t>Os09g0456200</t>
+  </si>
+  <si>
+    <t>Os09g0474000</t>
+  </si>
+  <si>
+    <t>Os09g0489500</t>
+  </si>
+  <si>
+    <t>Os12g0156200</t>
+  </si>
+  <si>
+    <t>Os12g0233800</t>
+  </si>
+  <si>
+    <t>Os12g0560900</t>
+  </si>
+  <si>
+    <t>Os01g0128000</t>
+  </si>
+  <si>
+    <t>Os01g0142500</t>
+  </si>
+  <si>
+    <t>Os01g0191900</t>
+  </si>
+  <si>
+    <t>Os01g0229000</t>
+  </si>
+  <si>
+    <t>Os01g0305900</t>
+  </si>
+  <si>
+    <t>Os01g0695900</t>
+  </si>
+  <si>
+    <t>Os01g0702700</t>
+  </si>
+  <si>
+    <t>Os01g0709000</t>
+  </si>
+  <si>
+    <t>Os01g0855400</t>
+  </si>
+  <si>
+    <t>Os01g0863300</t>
+  </si>
+  <si>
+    <t>Os01g0975300</t>
+  </si>
+  <si>
+    <t>Os01g0977300</t>
+  </si>
+  <si>
+    <t>Os02g0271900</t>
+  </si>
+  <si>
+    <t>Os02g0641300</t>
+  </si>
+  <si>
+    <t>Os03g0315400</t>
+  </si>
+  <si>
+    <t>Os03g0410000</t>
+  </si>
+  <si>
+    <t>Os04g0348300</t>
+  </si>
+  <si>
+    <t>Os05g0350900</t>
+  </si>
+  <si>
+    <t>Os05g0442400</t>
+  </si>
+  <si>
+    <t>Os05g0449900</t>
+  </si>
+  <si>
+    <t>Os05g0459000</t>
+  </si>
+  <si>
+    <t>Os05g0543600</t>
+  </si>
+  <si>
+    <t>Os06g0162700</t>
+  </si>
+  <si>
+    <t>Os06g0258000</t>
+  </si>
+  <si>
+    <t>Os07g0629000</t>
+  </si>
+  <si>
+    <t>Os07g0688200</t>
+  </si>
+  <si>
+    <t>Os08g0151300</t>
+  </si>
+  <si>
+    <t>Os08g0433400</t>
+  </si>
+  <si>
+    <t>Os09g0401000</t>
+  </si>
+  <si>
+    <t>Os09g0414300</t>
+  </si>
+  <si>
+    <t>Os09g0538400</t>
+  </si>
+  <si>
+    <t>Os12g0238000</t>
+  </si>
+  <si>
+    <t>Os12g0564100</t>
+  </si>
+  <si>
+    <t>Os12g0572000</t>
+  </si>
+  <si>
+    <t>Os01g0182700</t>
+  </si>
+  <si>
+    <t>Os01g0246700</t>
+  </si>
+  <si>
+    <t>Os02g0181300</t>
+  </si>
+  <si>
+    <t>Os02g0265200</t>
+  </si>
+  <si>
+    <t>Os03g0321700</t>
+  </si>
+  <si>
+    <t>Os03g0444900</t>
+  </si>
+  <si>
+    <t>Os04g0605100</t>
+  </si>
+  <si>
+    <t>Os05g0129800</t>
+  </si>
+  <si>
+    <t>Os05g0183100</t>
+  </si>
+  <si>
+    <t>Os05g0343400</t>
+  </si>
+  <si>
+    <t>Os05g0537100</t>
+  </si>
+  <si>
+    <t>Os07g0111400</t>
+  </si>
+  <si>
+    <t>Os08g0198400</t>
+  </si>
+  <si>
+    <t>Os08g0276200</t>
+  </si>
+  <si>
+    <t>Os08g0499300</t>
+  </si>
+  <si>
+    <t>Os09g0417800</t>
+  </si>
+  <si>
+    <t>Os10g0579400</t>
+  </si>
+  <si>
+    <t>Os11g0116900</t>
+  </si>
+  <si>
+    <t>Os12g0102300</t>
+  </si>
+  <si>
+    <t>Os12g0116400</t>
+  </si>
+  <si>
+    <t>Os01g0713600</t>
+  </si>
+  <si>
+    <t>Os01g0723700</t>
+  </si>
+  <si>
+    <t>Os01g0911700</t>
+  </si>
+  <si>
+    <t>Os02g0455800</t>
+  </si>
+  <si>
+    <t>Os02g0598200</t>
+  </si>
+  <si>
+    <t>Os03g0164300</t>
+  </si>
+  <si>
+    <t>Os03g0212300</t>
+  </si>
+  <si>
+    <t>Os03g0619600</t>
+  </si>
+  <si>
+    <t>Os03g0619800</t>
+  </si>
+  <si>
+    <t>Os04g0386900</t>
+  </si>
+  <si>
+    <t>Os06g0194400</t>
+  </si>
+  <si>
+    <t>Os07g0273700</t>
+  </si>
+  <si>
+    <t>Os07g0679700</t>
+  </si>
+  <si>
+    <t>Os08g0324300</t>
+  </si>
+  <si>
+    <t>Os10g0323000</t>
+  </si>
+  <si>
+    <t>Os11g0156000</t>
+  </si>
+  <si>
+    <t>Os12g0157000</t>
+  </si>
+  <si>
+    <t>Os02g0202000</t>
+  </si>
+  <si>
+    <t>Os02g0231000</t>
+  </si>
+  <si>
+    <t>Os02g0655200</t>
+  </si>
+  <si>
+    <t>Os02g0656600</t>
+  </si>
+  <si>
+    <t>Os02g0752800</t>
+  </si>
+  <si>
+    <t>Os03g0182800</t>
+  </si>
+  <si>
+    <t>Os03g0191900</t>
+  </si>
+  <si>
+    <t>Os03g0341000</t>
+  </si>
+  <si>
+    <t>Os03g0815800</t>
+  </si>
+  <si>
+    <t>Os04g0550200</t>
+  </si>
+  <si>
+    <t>Os04g0648900</t>
+  </si>
+  <si>
+    <t>Os04g0655700</t>
+  </si>
+  <si>
+    <t>Os05g0361700</t>
+  </si>
+  <si>
+    <t>Os05g0437100</t>
+  </si>
+  <si>
+    <t>Os05g0497300</t>
+  </si>
+  <si>
+    <t>Os06g0166400</t>
+  </si>
+  <si>
+    <t>Os06g0194000</t>
+  </si>
+  <si>
+    <t>Os06g0222400</t>
+  </si>
+  <si>
+    <t>Os06g0553700</t>
+  </si>
+  <si>
+    <t>Os06g0604000</t>
+  </si>
+  <si>
+    <t>Os06g0636000</t>
+  </si>
+  <si>
+    <t>Os07g0617000</t>
+  </si>
+  <si>
+    <t>Os08g0408500</t>
+  </si>
+  <si>
+    <t>Os08g0521600</t>
+  </si>
+  <si>
+    <t>Os08g0565200</t>
+  </si>
+  <si>
+    <t>Os09g0287000</t>
+  </si>
+  <si>
+    <t>Os10g0560700</t>
+  </si>
+  <si>
+    <t>Os01g0187900</t>
+  </si>
+  <si>
+    <t>Os01g0603300</t>
+  </si>
+  <si>
+    <t>Os01g0619900</t>
+  </si>
+  <si>
+    <t>Os01g0708000</t>
+  </si>
+  <si>
+    <t>Os02g0680700</t>
+  </si>
+  <si>
+    <t>Os02g0706400</t>
+  </si>
+  <si>
+    <t>Os03g0425800</t>
+  </si>
+  <si>
+    <t>Os04g0583900</t>
+  </si>
+  <si>
+    <t>Os05g0114700</t>
+  </si>
+  <si>
+    <t>Os05g0567600</t>
+  </si>
+  <si>
+    <t>Os05g0579600</t>
+  </si>
+  <si>
+    <t>Os05g0589400</t>
+  </si>
+  <si>
+    <t>Os06g0303700</t>
+  </si>
+  <si>
+    <t>Os06g0728700</t>
+  </si>
+  <si>
+    <t>Os07g0695900</t>
+  </si>
+  <si>
+    <t>Os08g0157600</t>
+  </si>
+  <si>
+    <t>Os10g0443800</t>
+  </si>
+  <si>
+    <t>Os10g0444100</t>
+  </si>
+  <si>
+    <t>Os10g0561400</t>
+  </si>
+  <si>
+    <t>Os10g0562100</t>
+  </si>
+  <si>
+    <t>Os12g0567300</t>
+  </si>
+  <si>
+    <t>Os01g0104500</t>
+  </si>
+  <si>
+    <t>Os01g0191300</t>
+  </si>
+  <si>
+    <t>Os01g0393100</t>
+  </si>
+  <si>
+    <t>Os01g0672100</t>
+  </si>
+  <si>
+    <t>Os01g0816100</t>
+  </si>
+  <si>
+    <t>Os01g0884300</t>
+  </si>
+  <si>
+    <t>Os01g0925400</t>
+  </si>
+  <si>
+    <t>Os01g0946200</t>
+  </si>
+  <si>
+    <t>Os02g0214500</t>
+  </si>
+  <si>
+    <t>Os02g0810900</t>
+  </si>
+  <si>
+    <t>Os03g0327100</t>
+  </si>
+  <si>
+    <t>Os03g0327800</t>
+  </si>
+  <si>
+    <t>Os03g0777000</t>
+  </si>
+  <si>
+    <t>Os03g0815100</t>
+  </si>
+  <si>
+    <t>Os04g0460600</t>
+  </si>
+  <si>
+    <t>Os05g0194500</t>
+  </si>
+  <si>
+    <t>Os05g0421600</t>
+  </si>
+  <si>
+    <t>Os06g0131700</t>
+  </si>
+  <si>
+    <t>Os06g0675600</t>
+  </si>
+  <si>
+    <t>Os07g0225300</t>
+  </si>
+  <si>
+    <t>Os07g0566500</t>
+  </si>
+  <si>
+    <t>Os08g0103900</t>
+  </si>
+  <si>
+    <t>Os08g0115800</t>
+  </si>
+  <si>
+    <t>Os08g0157900</t>
+  </si>
+  <si>
+    <t>Os08g0433500</t>
+  </si>
+  <si>
+    <t>Os08g0535800</t>
+  </si>
+  <si>
+    <t>Os09g0497900</t>
+  </si>
+  <si>
+    <t>Os09g0552900</t>
+  </si>
+  <si>
+    <t>Os10g0571600</t>
+  </si>
+  <si>
+    <t>Os11g0184900</t>
+  </si>
+  <si>
+    <t>Os11g0512000</t>
+  </si>
+  <si>
+    <t>Os11g0512100</t>
+  </si>
+  <si>
+    <t>Os11g0512600</t>
+  </si>
+  <si>
+    <t>Os01g0176700</t>
+  </si>
+  <si>
+    <t>Os01g0239000</t>
+  </si>
+  <si>
+    <t>Os02g0174000</t>
+  </si>
+  <si>
+    <t>Os02g0700300</t>
+  </si>
+  <si>
+    <t>Os03g0325500</t>
+  </si>
+  <si>
+    <t>Os03g0329900</t>
+  </si>
+  <si>
+    <t>Os03g0764600</t>
+  </si>
+  <si>
+    <t>Os04g0665600</t>
+  </si>
+  <si>
+    <t>Os06g0348800</t>
+  </si>
+  <si>
+    <t>Os06g0664800</t>
+  </si>
+  <si>
+    <t>Os07g0119300</t>
+  </si>
+  <si>
+    <t>Os07g0685300</t>
+  </si>
+  <si>
+    <t>Os08g0346400</t>
+  </si>
+  <si>
+    <t>Os08g0346500</t>
+  </si>
+  <si>
+    <t>Os08g0434700</t>
+  </si>
+  <si>
+    <t>Os11g0106100</t>
+  </si>
+  <si>
+    <t>Os12g0105600</t>
+  </si>
+  <si>
+    <t>Os03g0769800</t>
+  </si>
+  <si>
+    <t>Os05g0320300</t>
+  </si>
+  <si>
+    <t>Os05g0562400</t>
+  </si>
+  <si>
+    <t>Os01g0318400</t>
+  </si>
+  <si>
+    <t>Os11g0163500</t>
+  </si>
+  <si>
+    <t>Os02g0104500</t>
+  </si>
+  <si>
+    <t>Os02g0174300</t>
+  </si>
+  <si>
+    <t>Os02g0516800</t>
+  </si>
+  <si>
+    <t>Os02g0539600</t>
+  </si>
+  <si>
+    <t>Os02g0565000</t>
+  </si>
+  <si>
+    <t>Os02g0648300</t>
+  </si>
+  <si>
+    <t>Os03g0113500</t>
+  </si>
+  <si>
+    <t>Os04g0397500</t>
+  </si>
+  <si>
+    <t>Os04g0541100</t>
+  </si>
+  <si>
+    <t>Os02g0706600</t>
+  </si>
+  <si>
+    <t>Os08g0438400</t>
+  </si>
+  <si>
+    <t>Os08g0479400</t>
+  </si>
+  <si>
+    <t>Os09g0466400</t>
+  </si>
+  <si>
+    <t>Os11g0128300</t>
+  </si>
+  <si>
+    <t>Os11g0243300</t>
+  </si>
+  <si>
+    <t>Os12g0124500</t>
+  </si>
+  <si>
+    <t>Os01g0646300</t>
+  </si>
+  <si>
+    <t>Os01g0842200</t>
+  </si>
+  <si>
+    <t>Os01g0881500</t>
+  </si>
+  <si>
+    <t>Os03g0707600</t>
+  </si>
+  <si>
+    <t>Os04g0555000</t>
+  </si>
+  <si>
+    <t>Os06g0127800</t>
+  </si>
+  <si>
+    <t>Os06g0610300</t>
+  </si>
+  <si>
+    <t>Os10g0369600</t>
+  </si>
+  <si>
+    <t>Os10g0551200</t>
+  </si>
+  <si>
+    <t>Os01g0201700</t>
+  </si>
+  <si>
+    <t>Os01g0883100</t>
+  </si>
+  <si>
+    <t>Os01g0886200</t>
+  </si>
+  <si>
+    <t>Os02g0104100</t>
+  </si>
+  <si>
+    <t>Os02g0170300</t>
+  </si>
+  <si>
+    <t>Os02g0579600</t>
+  </si>
+  <si>
+    <t>Os02g0682200</t>
+  </si>
+  <si>
+    <t>Os03g0753100</t>
+  </si>
+  <si>
+    <t>Os04g0580700</t>
+  </si>
+  <si>
+    <t>Os04g0614100</t>
+  </si>
+  <si>
+    <t>Os05g0203800</t>
+  </si>
+  <si>
+    <t>Os05g0423400</t>
+  </si>
+  <si>
+    <t>Os06g0162800</t>
+  </si>
+  <si>
+    <t>Os06g0712700</t>
+  </si>
+  <si>
+    <t>Os07g0108900</t>
+  </si>
+  <si>
+    <t>Os08g0112700</t>
+  </si>
+  <si>
+    <t>Os08g0531700</t>
+  </si>
+  <si>
+    <t>Os09g0507200</t>
+  </si>
+  <si>
+    <t>Os10g0536100</t>
+  </si>
+  <si>
+    <t>Os12g0207000</t>
+  </si>
+  <si>
+    <t>Os07g0684900</t>
+  </si>
+  <si>
+    <t>Os01g0818400</t>
+  </si>
+  <si>
+    <t>Os01g0511000</t>
+  </si>
+  <si>
+    <t>Os03g0445700</t>
+  </si>
+  <si>
+    <t>Os03g0659700</t>
+  </si>
+  <si>
+    <t>Os03g0790600</t>
+  </si>
+  <si>
+    <t>Os07g0589000</t>
+  </si>
+  <si>
+    <t>Os02g0610500</t>
+  </si>
+  <si>
+    <t>Os02g0731700</t>
+  </si>
+  <si>
+    <t>Os03g0711100</t>
+  </si>
+  <si>
+    <t>Os04g0497700</t>
+  </si>
+  <si>
+    <t>Os06g0275000</t>
+  </si>
+  <si>
+    <t>Os06g0298200</t>
+  </si>
+  <si>
+    <t>Os06g0654900</t>
+  </si>
+  <si>
+    <t>Os12g0636200</t>
+  </si>
+  <si>
+    <t>Os03g0680800</t>
+  </si>
+  <si>
+    <t>Os03g0732100</t>
+  </si>
+  <si>
+    <t>Os11g0158600</t>
+  </si>
+  <si>
+    <t>Os01g0848400</t>
+  </si>
+  <si>
+    <t>Os05g0455200</t>
+  </si>
+  <si>
+    <t>Os03g0124000</t>
+  </si>
+  <si>
+    <t>Os03g0727000</t>
+  </si>
+  <si>
+    <t>Os07g0129700</t>
+  </si>
+  <si>
+    <t>Os01g0302500</t>
+  </si>
+  <si>
+    <t>Os05g0129700</t>
+  </si>
+  <si>
+    <t>Os03g0727200</t>
+  </si>
+  <si>
+    <t>Os06g0646600</t>
+  </si>
+  <si>
+    <t>Os02g0182800</t>
+  </si>
+  <si>
+    <t>Os03g0123500</t>
+  </si>
+  <si>
+    <t>Os01g0273200</t>
+  </si>
+  <si>
+    <t>Os02g0284500</t>
+  </si>
+  <si>
+    <t>Os02g0542200</t>
+  </si>
+  <si>
+    <t>Os02g0550900</t>
+  </si>
+  <si>
+    <t>Os03g0164400</t>
+  </si>
+  <si>
+    <t>Os03g0181600</t>
+  </si>
+  <si>
+    <t>Os03g0255400</t>
+  </si>
+  <si>
+    <t>Os04g0615900</t>
+  </si>
+  <si>
+    <t>Os05g0317300</t>
+  </si>
+  <si>
+    <t>Os08g0130100</t>
+  </si>
+  <si>
+    <t>Os08g0159500</t>
+  </si>
+  <si>
+    <t>Os02g0747400</t>
+  </si>
+  <si>
+    <t>Os03g0785800</t>
+  </si>
+  <si>
+    <t>Os08g0544800</t>
+  </si>
+  <si>
+    <t>Os12g0616400</t>
+  </si>
+  <si>
+    <t>Os03g0650000</t>
+  </si>
+  <si>
+    <t>Os07g0160100</t>
+  </si>
+  <si>
+    <t>Os12g0621100</t>
+  </si>
+  <si>
+    <t>Os03g0324300</t>
+  </si>
+  <si>
+    <t>Os04g0456900</t>
+  </si>
+  <si>
+    <t>Os07g0685700</t>
+  </si>
+  <si>
+    <t>Os08g0508700</t>
+  </si>
+  <si>
+    <t>Os08g0369600</t>
+  </si>
+  <si>
+    <t>Os12g0605500</t>
+  </si>
+  <si>
+    <t>Os01g0202500</t>
+  </si>
+  <si>
+    <t>Os02g0606200</t>
+  </si>
+  <si>
+    <t>Os04g0493000</t>
+  </si>
+  <si>
+    <t>Os05g0204600</t>
+  </si>
+  <si>
+    <t>Os01g0922800</t>
+  </si>
+  <si>
+    <t>Os04g0461300</t>
+  </si>
+  <si>
+    <t>Os09g0116800</t>
+  </si>
+  <si>
+    <t>Os01g0343300</t>
+  </si>
+  <si>
+    <t>Os04g0539500</t>
+  </si>
+  <si>
+    <t>Os05g0520300</t>
+  </si>
+  <si>
+    <t>Os10g0557600</t>
+  </si>
+  <si>
+    <t>Os01g0292900</t>
+  </si>
+  <si>
+    <t>Os02g0139400</t>
+  </si>
+  <si>
+    <t>Os06g0703500</t>
+  </si>
+  <si>
+    <t>Os12g0158800</t>
+  </si>
+  <si>
+    <t>Os03g0191000</t>
+  </si>
+  <si>
+    <t>Os01g0571300</t>
+  </si>
+  <si>
+    <t>Os02g0232000</t>
+  </si>
+  <si>
+    <t>Os03g0745000</t>
+  </si>
+  <si>
+    <t>Os06g0553100</t>
+  </si>
+  <si>
+    <t>Os10g0419300</t>
+  </si>
+  <si>
+    <t>Os01g0102400</t>
+  </si>
+  <si>
+    <t>Os01g0580400</t>
+  </si>
+  <si>
+    <t>Os02g0725900</t>
+  </si>
+  <si>
+    <t>Os03g0174900</t>
+  </si>
+  <si>
+    <t>Os03g0251350</t>
+  </si>
+  <si>
+    <t>Os03g0411100</t>
+  </si>
+  <si>
+    <t>Os03g0413000</t>
+  </si>
+  <si>
+    <t>Os05g0304800</t>
+  </si>
+  <si>
+    <t>Os05g0494100</t>
+  </si>
+  <si>
+    <t>Os06g0285200</t>
+  </si>
+  <si>
+    <t>Os07g0608200</t>
+  </si>
+  <si>
+    <t>Os08g0196700</t>
+  </si>
+  <si>
+    <t>Os10g0191900</t>
+  </si>
+  <si>
+    <t>Os11g0544700</t>
+  </si>
+  <si>
+    <t>Os01g0178500_OsIAA1</t>
+  </si>
+  <si>
+    <t>Os02g0817600_OsIAA10</t>
+  </si>
+  <si>
+    <t>Os02g0649900_OsYSL2</t>
+  </si>
+  <si>
+    <t>Os03g0633800_OsIAA12</t>
+  </si>
+  <si>
+    <t>Os03g0742900_OsIAA13</t>
+  </si>
+  <si>
+    <t>Os03g0797800_OsIAA14</t>
+  </si>
+  <si>
+    <t>Os05g0178600_OsIAA15</t>
+  </si>
+  <si>
+    <t>Os05g0230700_OsIAA17</t>
+  </si>
+  <si>
+    <t>Os05g0523300_OsIAA18</t>
+  </si>
+  <si>
+    <t>Os05g0559400_OsIAA19</t>
+  </si>
+  <si>
+    <t>Os06g0166500_OsIAA20</t>
+  </si>
+  <si>
+    <t>Os06g0724800_OsbHLH155</t>
+  </si>
+  <si>
+    <t>Os06g0335500_OsIAA21</t>
+  </si>
+  <si>
+    <t>Os06g0613500_OsbHLH095</t>
+  </si>
+  <si>
+    <t>Os06g0597000_OsIAA23</t>
+  </si>
+  <si>
+    <t>Os07g0182400_OsIAA24</t>
+  </si>
+  <si>
+    <t>Os11g0221000_OsIAA27</t>
+  </si>
+  <si>
+    <t>Os11g0221200_OsIAA28</t>
+  </si>
+  <si>
+    <t>Os11g0221300_OsIAA29</t>
+  </si>
+  <si>
+    <t>Os01g0190300_OsIAA2</t>
+  </si>
+  <si>
+    <t>Os01g0231000_OsIAA3</t>
+  </si>
+  <si>
+    <t>Os12g0143800_OsDMC1</t>
+  </si>
+  <si>
+    <t>Os12g0601300_OsIAA30</t>
+  </si>
+  <si>
+    <t>Os01g0286900_OsIAA4</t>
+  </si>
+  <si>
+    <t>Os01g0230200_OsbHLH074</t>
+  </si>
+  <si>
+    <t>Os02g0557800_OsRR2</t>
+  </si>
+  <si>
+    <t>Os02g0723400_OsIAA8</t>
+  </si>
+  <si>
+    <t>Os02g0710300_OsbHLH126</t>
+  </si>
+  <si>
+    <t>Os02g0276900_OsbHLH072</t>
+  </si>
+  <si>
+    <t>Os02g0805100_OsIAA9</t>
+  </si>
+  <si>
+    <t>Os03g0826500_OsASA1</t>
+  </si>
+  <si>
+    <t>Os03g0264400_OsASA2</t>
+  </si>
+  <si>
+    <t>Os01g0224700_OsYUCCA4</t>
+  </si>
+  <si>
+    <t>Os04g0128900_OsYUCCA7</t>
+  </si>
+  <si>
+    <t>Os01g0169800_OsFIB</t>
+  </si>
+  <si>
+    <t>Os01g0717700_EGFlike</t>
+  </si>
+  <si>
+    <t>Os01g0236300_OsARF16</t>
+  </si>
+  <si>
+    <t>Os01g0927600_OsARF4</t>
+  </si>
+  <si>
+    <t>Os04g0442000_OsARF9</t>
+  </si>
+  <si>
+    <t>Os12g0479400_OsARF24</t>
+  </si>
+  <si>
+    <t>Os02g0164900_OsARF6</t>
+  </si>
+  <si>
+    <t>Os04g0671900_OsARF12</t>
+  </si>
+  <si>
+    <t>Os06g0196700_OsARF16</t>
+  </si>
+  <si>
+    <t>Os06g0702600_OsARF19</t>
+  </si>
+  <si>
+    <t>Os08g0520500_OsARF21</t>
+  </si>
+  <si>
+    <t>Os01g0670800_OsARF2</t>
+  </si>
+  <si>
+    <t>Os01g0753500_OsARF3</t>
+  </si>
+  <si>
+    <t>Os05g0515400_OsARF14</t>
+  </si>
+  <si>
+    <t>Os05g0563400_OsARF15</t>
+  </si>
+  <si>
+    <t>Os06g0685700_OsARF18</t>
+  </si>
+  <si>
+    <t>Os01g0177400</t>
+  </si>
+  <si>
+    <t>Os01g0188100</t>
+  </si>
+  <si>
+    <t>Os01g0757200</t>
+  </si>
+  <si>
+    <t>Os02g0103700</t>
+  </si>
+  <si>
+    <t>Os02g0567800</t>
+  </si>
+  <si>
+    <t>Os03g0252100</t>
+  </si>
+  <si>
+    <t>Os03g0607200</t>
+  </si>
+  <si>
+    <t>Os03g0618300</t>
+  </si>
+  <si>
+    <t>Os03g0760800</t>
+  </si>
+  <si>
+    <t>Os04g0475600</t>
+  </si>
+  <si>
+    <t>Os04g0522500</t>
+  </si>
+  <si>
+    <t>Os05g0158600</t>
+  </si>
+  <si>
+    <t>Os05g0178100</t>
+  </si>
+  <si>
+    <t>Os05g0376800</t>
+  </si>
+  <si>
+    <t>Os05g0432200</t>
+  </si>
+  <si>
+    <t>Os06g0214800</t>
+  </si>
+  <si>
+    <t>Os06g0214850</t>
+  </si>
+  <si>
+    <t>Os06g0306600</t>
+  </si>
+  <si>
+    <t>Os06g0729400</t>
+  </si>
+  <si>
+    <t>Os07g0162400</t>
+  </si>
+  <si>
+    <t>Os07g0162500</t>
+  </si>
+  <si>
+    <t>Os07g0162900</t>
+  </si>
+  <si>
+    <t>Os07g0592000</t>
+  </si>
+  <si>
+    <t>Os07g0643400</t>
+  </si>
+  <si>
+    <t>Os08g0560000</t>
+  </si>
+  <si>
+    <t>Os09g0245500</t>
+  </si>
+  <si>
+    <t>Os09g0455900</t>
+  </si>
+  <si>
+    <t>Os09g0461500</t>
+  </si>
+  <si>
+    <t>Os10g0522900</t>
+  </si>
+  <si>
+    <t>Os11g0240600</t>
+  </si>
+  <si>
+    <t>Os01g0805400</t>
+  </si>
+  <si>
+    <t>Os01g0923700</t>
+  </si>
+  <si>
+    <t>Os02g0490500</t>
+  </si>
+  <si>
+    <t>Os02g0557800</t>
+  </si>
+  <si>
+    <t>Os02g0755900</t>
+  </si>
+  <si>
+    <t>Os02g0796500</t>
+  </si>
+  <si>
+    <t>Os03g0717700</t>
+  </si>
+  <si>
+    <t>Os03g0810100</t>
+  </si>
+  <si>
+    <t>Os04g0320700</t>
+  </si>
+  <si>
+    <t>Os04g0442300</t>
+  </si>
+  <si>
+    <t>Os04g0523600</t>
+  </si>
+  <si>
+    <t>Os04g0673300</t>
+  </si>
+  <si>
+    <t>Os06g0729800</t>
+  </si>
+  <si>
+    <t>Os08g0358800</t>
+  </si>
+  <si>
+    <t>Os08g0376700</t>
+  </si>
+  <si>
+    <t>Os08g0377200</t>
+  </si>
+  <si>
+    <t>Os09g0529900</t>
+  </si>
+  <si>
+    <t>Os10g0362300</t>
+  </si>
+  <si>
+    <t>Os11g0143300</t>
+  </si>
+  <si>
+    <t>Os12g0139400</t>
+  </si>
+  <si>
+    <t>Os08g0557700</t>
+  </si>
+  <si>
+    <t>Os01g0566500</t>
+  </si>
+  <si>
+    <t>Os02g0636700</t>
+  </si>
+  <si>
+    <t>Os02g0703600</t>
+  </si>
+  <si>
+    <t>Os02g0704000</t>
+  </si>
+  <si>
+    <t>Os02g0747500</t>
+  </si>
+  <si>
+    <t>Os03g0132300</t>
+  </si>
+  <si>
+    <t>Os03g0250200</t>
+  </si>
+  <si>
+    <t>Os03g0390200</t>
+  </si>
+  <si>
+    <t>Os03g0610900</t>
+  </si>
+  <si>
+    <t>Os03g0645900</t>
+  </si>
+  <si>
+    <t>Os03g0736700</t>
+  </si>
+  <si>
+    <t>Os03g0790700</t>
+  </si>
+  <si>
+    <t>Os03g0790900</t>
+  </si>
+  <si>
+    <t>Os04g0415200</t>
+  </si>
+  <si>
+    <t>Os04g0432000</t>
+  </si>
+  <si>
+    <t>Os04g0448900</t>
+  </si>
+  <si>
+    <t>Os04g0511200</t>
+  </si>
+  <si>
+    <t>Os04g0550600</t>
+  </si>
+  <si>
+    <t>Os07g0164900</t>
+  </si>
+  <si>
+    <t>Os08g0467500</t>
+  </si>
+  <si>
+    <t>Os10g0177400</t>
+  </si>
+  <si>
+    <t>Os10g0564500</t>
+  </si>
+  <si>
+    <t>Os11g0602300</t>
+  </si>
+  <si>
+    <t>Os12g0158600</t>
+  </si>
+  <si>
+    <t>Os12g0617400</t>
+  </si>
+  <si>
+    <t>Os03g0427300</t>
+  </si>
+  <si>
+    <t>Os02g0268100</t>
+  </si>
+  <si>
+    <t>Os10g0400200</t>
+  </si>
+  <si>
+    <t>Os05g0349800</t>
+  </si>
+  <si>
+    <t>Os08g0127900</t>
+  </si>
+  <si>
+    <t>Os03g0214200</t>
+  </si>
+  <si>
+    <t>Os07g0175900</t>
+  </si>
+  <si>
+    <t>Os06g0563900</t>
+  </si>
+  <si>
+    <t>Os01g0159600</t>
+  </si>
+  <si>
+    <t>Os12g0183300</t>
+  </si>
+  <si>
+    <t>Os02g0456100</t>
+  </si>
+  <si>
+    <t>Os01g0964133</t>
+  </si>
+  <si>
+    <t>Os10g0498000</t>
+  </si>
+  <si>
+    <t>Os07g0249900</t>
+  </si>
+  <si>
+    <t>Os02g0596700</t>
+  </si>
+  <si>
+    <t>Os09g0321900</t>
+  </si>
+  <si>
+    <t>Os01g0862300</t>
+  </si>
+  <si>
+    <t>Os03g0826500</t>
+  </si>
+  <si>
+    <t>Os05g0438800</t>
+  </si>
+  <si>
+    <t>Os05g0481900</t>
+  </si>
+  <si>
+    <t>Os12g0145100</t>
+  </si>
+  <si>
+    <t>Os06g0592500</t>
+  </si>
+  <si>
+    <t>Os06g0176700</t>
+  </si>
+  <si>
+    <t>Os06g0178700</t>
+  </si>
+  <si>
+    <t>Os06g0182100</t>
+  </si>
+  <si>
+    <t>Os07g0178100</t>
+  </si>
+  <si>
+    <t>Os07g0471900</t>
+  </si>
+  <si>
+    <t>Os08g0356500</t>
+  </si>
+  <si>
+    <t>Os08g0366100</t>
+  </si>
+  <si>
+    <t>Os08g0480200</t>
+  </si>
+  <si>
+    <t>Os10g0536400</t>
+  </si>
+  <si>
+    <t>Os10g0558900</t>
+  </si>
+  <si>
+    <t>Os11g0585900</t>
+  </si>
+  <si>
+    <t>Os12g0552500</t>
+  </si>
+  <si>
+    <t>Os12g0623900</t>
+  </si>
+  <si>
+    <t>Os02g0771600</t>
+  </si>
+  <si>
+    <t>Os03g0701700</t>
+  </si>
+  <si>
+    <t>Os01g0103600</t>
+  </si>
+  <si>
+    <t>Os01g0279800</t>
+  </si>
+  <si>
+    <t>Os01g0354200</t>
+  </si>
+  <si>
+    <t>Os01g0718300</t>
+  </si>
+  <si>
+    <t>Os01g0809300</t>
+  </si>
+  <si>
+    <t>Os01g0935800</t>
+  </si>
+  <si>
+    <t>Os02g0236200</t>
+  </si>
+  <si>
+    <t>Os02g0465400</t>
+  </si>
+  <si>
+    <t>Os02g0728500</t>
+  </si>
+  <si>
+    <t>Os03g0136200</t>
+  </si>
+  <si>
+    <t>Os03g0440900</t>
+  </si>
+  <si>
+    <t>Os03g0703200</t>
+  </si>
+  <si>
+    <t>Os05g0133900</t>
+  </si>
+  <si>
+    <t>Os05g0414700</t>
+  </si>
+  <si>
+    <t>Os05g0491400</t>
+  </si>
+  <si>
+    <t>Os06g0166900</t>
+  </si>
+  <si>
+    <t>Os06g0274500</t>
+  </si>
+  <si>
+    <t>Os06g0547900</t>
+  </si>
+  <si>
+    <t>Os06g0552300</t>
+  </si>
+  <si>
+    <t>Os07g0206700</t>
+  </si>
+  <si>
+    <t>Os07g0580500</t>
+  </si>
+  <si>
+    <t>Os08g0276400</t>
+  </si>
+  <si>
+    <t>Os09g0293500</t>
+  </si>
+  <si>
+    <t>Os09g0565600</t>
+  </si>
+  <si>
+    <t>Os11g0525200</t>
+  </si>
+  <si>
+    <t>Os03g0602300</t>
+  </si>
+  <si>
+    <t>Os06g0600400</t>
+  </si>
+  <si>
+    <t>Os12g0617900</t>
+  </si>
+  <si>
+    <t>os03g0100800</t>
+  </si>
+  <si>
+    <t>os11g0446500</t>
+  </si>
+  <si>
+    <t>os06g0488600</t>
+  </si>
+  <si>
+    <t>os03g0689300</t>
+  </si>
+  <si>
+    <t>os04g0353000</t>
+  </si>
+  <si>
+    <t>os07g0191200</t>
+  </si>
+  <si>
+    <t>os12g0638700</t>
+  </si>
+  <si>
+    <t>os03g0120100</t>
+  </si>
+  <si>
+    <t>os11g0485200</t>
+  </si>
+  <si>
+    <t>os04g0656100</t>
+  </si>
+  <si>
+    <t>os10g0184300</t>
+  </si>
+  <si>
+    <t>os03g0183900</t>
+  </si>
+  <si>
+    <t>os11g0169900</t>
+  </si>
+  <si>
+    <t>os02g0175400</t>
+  </si>
+  <si>
+    <t>os01g0610100</t>
+  </si>
+  <si>
+    <t>os04g0643100</t>
+  </si>
+  <si>
+    <t>os03g0719900</t>
+  </si>
+  <si>
+    <t>os10g0579800</t>
+  </si>
+  <si>
+    <t>os01g0871600</t>
+  </si>
+  <si>
+    <t>os12g0638200</t>
+  </si>
+  <si>
+    <t>os05g0431700</t>
+  </si>
+  <si>
+    <t>os05g0410900</t>
+  </si>
+  <si>
+    <t>os01g0872000</t>
+  </si>
+  <si>
+    <t>os04g0441800</t>
+  </si>
+  <si>
+    <t>os11g0282800</t>
+  </si>
+  <si>
+    <t>os03g0823500</t>
+  </si>
+  <si>
+    <t>os06g0581000</t>
+  </si>
+  <si>
+    <t>os03g0751100</t>
+  </si>
+  <si>
+    <t>os04g0491350</t>
+  </si>
+  <si>
+    <t>os04g0542800</t>
+  </si>
+  <si>
+    <t>os01g0902700</t>
+  </si>
+  <si>
+    <t>os07g0603800</t>
+  </si>
+  <si>
+    <t>os06g0125400</t>
+  </si>
+  <si>
+    <t>os01g0913300</t>
+  </si>
+  <si>
+    <t>os04g0524900</t>
+  </si>
+  <si>
+    <t>os06g0264500</t>
+  </si>
+  <si>
+    <t>os10g0579600</t>
+  </si>
+  <si>
+    <t>os04g0390500</t>
+  </si>
+  <si>
+    <t>os10g0370700</t>
+  </si>
+  <si>
+    <t>os04g0464400</t>
+  </si>
+  <si>
+    <t>os06g0705600</t>
+  </si>
+  <si>
+    <t>os11g0426100</t>
+  </si>
+  <si>
+    <t>os01g0872100</t>
+  </si>
+  <si>
+    <t>os03g0235700</t>
+  </si>
+  <si>
+    <t>os02g0716800</t>
+  </si>
+  <si>
+    <t>os03g0235900</t>
+  </si>
+  <si>
+    <t>os08g0155400</t>
+  </si>
+  <si>
+    <t>os11g0283500</t>
+  </si>
+  <si>
+    <t>os02g0689900</t>
+  </si>
+  <si>
+    <t>os01g0556700</t>
+  </si>
+  <si>
+    <t>os11g0235200</t>
+  </si>
+  <si>
+    <t>os01g0872600</t>
+  </si>
+  <si>
+    <t>os01g0761400</t>
+  </si>
+  <si>
+    <t>os02g0633300</t>
+  </si>
+  <si>
+    <t>os01g0871500</t>
+  </si>
+  <si>
+    <t>os02g0649900</t>
+  </si>
+  <si>
+    <t>os05g0567700</t>
+  </si>
+  <si>
+    <t>os11g0135300</t>
+  </si>
+  <si>
+    <t>os04g0453200</t>
+  </si>
+  <si>
+    <t>os03g0594400</t>
+  </si>
+  <si>
+    <t>os12g0132500</t>
+  </si>
+  <si>
+    <t>os09g0394500</t>
+  </si>
+  <si>
+    <t>os05g0536200</t>
+  </si>
+  <si>
+    <t>os10g0579200</t>
+  </si>
+  <si>
+    <t>os09g0452300</t>
+  </si>
+  <si>
+    <t>os05g0579000</t>
+  </si>
+  <si>
+    <t>os07g0559700</t>
+  </si>
+  <si>
+    <t>os04g0453400</t>
+  </si>
+  <si>
+    <t>os03g0197100</t>
+  </si>
+  <si>
+    <t>os07g0151200</t>
+  </si>
+  <si>
+    <t>os03g0363600</t>
+  </si>
+  <si>
+    <t>os03g0101300</t>
+  </si>
+  <si>
+    <t>os02g0573300</t>
+  </si>
+  <si>
+    <t>os09g0297300</t>
+  </si>
+  <si>
+    <t>os07g0131600</t>
+  </si>
+  <si>
+    <t>os11g0135900</t>
+  </si>
+  <si>
+    <t>os09g0268300</t>
+  </si>
+  <si>
+    <t>os04g0511400</t>
+  </si>
+  <si>
+    <t>os01g0588200</t>
+  </si>
+  <si>
+    <t>os02g0229400</t>
+  </si>
+  <si>
+    <t>os12g0616500</t>
+  </si>
+  <si>
+    <t>os03g0208500</t>
+  </si>
+  <si>
+    <t>os02g0564300</t>
+  </si>
+  <si>
+    <t>os05g0198400</t>
+  </si>
+  <si>
+    <t>os04g0533900</t>
+  </si>
+  <si>
+    <t>os05g0400600</t>
+  </si>
+  <si>
+    <t>os01g0309800</t>
+  </si>
+  <si>
+    <t>os04g0415600</t>
+  </si>
+  <si>
+    <t>os01g0130000</t>
+  </si>
+  <si>
+    <t>os08g0467400</t>
+  </si>
+  <si>
+    <t>os04g0613000</t>
+  </si>
+  <si>
+    <t>os06g0676000</t>
+  </si>
+  <si>
+    <t>os01g0826000</t>
+  </si>
+  <si>
+    <t>os07g0257200</t>
+  </si>
+  <si>
+    <t>os03g0667300</t>
+  </si>
+  <si>
+    <t>os06g0700700</t>
+  </si>
+  <si>
+    <t>os03g0178100</t>
+  </si>
+  <si>
+    <t>os08g0207500</t>
+  </si>
+  <si>
+    <t>os01g0125600</t>
+  </si>
+  <si>
+    <t>os05g0461900</t>
+  </si>
+  <si>
+    <t>os03g0345700</t>
+  </si>
+  <si>
+    <t>os06g0690700</t>
+  </si>
+  <si>
+    <t>os07g0258400</t>
+  </si>
+  <si>
+    <t>os09g0396900</t>
+  </si>
+  <si>
+    <t>os06g0566300</t>
+  </si>
+  <si>
+    <t>os05g0119000</t>
+  </si>
+  <si>
+    <t>os02g0196600</t>
+  </si>
+  <si>
+    <t>os04g0556000</t>
+  </si>
+  <si>
+    <t>os09g0109800</t>
+  </si>
+  <si>
+    <t>os01g0927300</t>
+  </si>
+  <si>
+    <t>os10g0440500</t>
+  </si>
+  <si>
+    <t>os01g0503400</t>
+  </si>
+  <si>
+    <t>os05g0424000</t>
+  </si>
+  <si>
+    <t>os06g0228600</t>
+  </si>
+  <si>
+    <t>os01g0882800</t>
+  </si>
+  <si>
+    <t>os12g0181500</t>
+  </si>
+  <si>
+    <t>os12g0181600</t>
+  </si>
+  <si>
+    <t>os12g0580400</t>
+  </si>
+  <si>
+    <t>os02g0802500</t>
+  </si>
+  <si>
+    <t>os11g0195600</t>
+  </si>
+  <si>
+    <t>os03g0244600</t>
+  </si>
+  <si>
+    <t>os03g0576900</t>
+  </si>
+  <si>
+    <t>os03g0654400</t>
+  </si>
+  <si>
+    <t>os12g0156866</t>
+  </si>
+  <si>
+    <t>os01g0621200</t>
+  </si>
+  <si>
+    <t>os12g0194900</t>
+  </si>
+  <si>
+    <t>os03g0644400</t>
+  </si>
+  <si>
+    <t>os02g0700500</t>
+  </si>
+  <si>
+    <t>os07g0134000</t>
+  </si>
+  <si>
+    <t>os06g0644200</t>
+  </si>
+  <si>
+    <t>os04g0460300</t>
+  </si>
+  <si>
+    <t>os12g0623500</t>
+  </si>
+  <si>
+    <t>os02g0101000</t>
+  </si>
+  <si>
+    <t>os04g0462400</t>
+  </si>
+  <si>
+    <t>os02g0727100</t>
+  </si>
+  <si>
+    <t>os02g0191300</t>
+  </si>
+  <si>
+    <t>os01g0825800</t>
+  </si>
+  <si>
+    <t>os04g0470700</t>
+  </si>
+  <si>
+    <t>os07g0100800</t>
+  </si>
+  <si>
+    <t>os04g0659800</t>
+  </si>
+  <si>
+    <t>os01g0878700</t>
+  </si>
+  <si>
+    <t>os02g0184200</t>
+  </si>
+  <si>
+    <t>os05g0156900</t>
+  </si>
+  <si>
+    <t>os02g0670900</t>
+  </si>
+  <si>
+    <t>os06g0556000</t>
+  </si>
+  <si>
+    <t>os12g0485600</t>
+  </si>
+  <si>
+    <t>os06g0178900</t>
+  </si>
+  <si>
+    <t>os07g0662800</t>
+  </si>
+  <si>
+    <t>os11g0155500</t>
+  </si>
+  <si>
+    <t>os01g0593700</t>
+  </si>
+  <si>
+    <t>os04g0652400</t>
+  </si>
+  <si>
+    <t>os06g0143700</t>
+  </si>
+  <si>
+    <t>os01g0719300</t>
+  </si>
+  <si>
+    <t>os03g0161200</t>
+  </si>
+  <si>
+    <t>os02g0809800</t>
+  </si>
+  <si>
+    <t>os01g0110100</t>
+  </si>
+  <si>
+    <t>os09g0570400</t>
+  </si>
+  <si>
+    <t>os01g0852200</t>
+  </si>
+  <si>
+    <t>os04g0186400</t>
+  </si>
+  <si>
+    <t>os02g0593500</t>
+  </si>
+  <si>
+    <t>os06g0493600</t>
+  </si>
+  <si>
+    <t>os01g0704100</t>
+  </si>
+  <si>
+    <t>os02g0595900</t>
+  </si>
+  <si>
+    <t>os04g0509600</t>
+  </si>
+  <si>
+    <t>Os01g0609900</t>
+  </si>
+  <si>
+    <t>Os01g0695700</t>
+  </si>
+  <si>
+    <t>Os01g0723800</t>
+  </si>
+  <si>
+    <t>Os01g0902100</t>
+  </si>
+  <si>
+    <t>Os01g0904200</t>
+  </si>
+  <si>
+    <t>Os01g0911300</t>
+  </si>
+  <si>
+    <t>Os02g0211000</t>
+  </si>
+  <si>
+    <t>Os02g0288400</t>
+  </si>
+  <si>
+    <t>Os02g0323000</t>
+  </si>
+  <si>
+    <t>Os02g0575500</t>
+  </si>
+  <si>
+    <t>Os02g0693700</t>
+  </si>
+  <si>
+    <t>Os02g0816600</t>
+  </si>
+  <si>
+    <t>Os02g0826500</t>
+  </si>
+  <si>
+    <t>Os03g0142800</t>
+  </si>
+  <si>
+    <t>Os03g0157400</t>
+  </si>
+  <si>
+    <t>Os03g0859500</t>
+  </si>
+  <si>
+    <t>Os04g0209200</t>
+  </si>
+  <si>
+    <t>Os04g0209300</t>
+  </si>
+  <si>
+    <t>Os04g0528300</t>
+  </si>
+  <si>
+    <t>Os05g0196100</t>
+  </si>
+  <si>
+    <t>Os05g0222200</t>
+  </si>
+  <si>
+    <t>Os05g0323800</t>
+  </si>
+  <si>
+    <t>Os06g0128300</t>
+  </si>
+  <si>
+    <t>Os06g0158900</t>
+  </si>
+  <si>
+    <t>Os06g0184700</t>
+  </si>
+  <si>
+    <t>Os06g0503100</t>
+  </si>
+  <si>
+    <t>Os06g0589300</t>
+  </si>
+  <si>
+    <t>Os08g0167000</t>
+  </si>
+  <si>
+    <t>Os08g0384500</t>
+  </si>
+  <si>
+    <t>Os08g0398000</t>
+  </si>
+  <si>
+    <t>Os09g0250700</t>
+  </si>
+  <si>
+    <t>Os09g0250800</t>
+  </si>
+  <si>
+    <t>Os09g0572400</t>
+  </si>
+  <si>
+    <t>Os10g0205500</t>
+  </si>
+  <si>
+    <t>Os10g0432200</t>
+  </si>
+  <si>
+    <t>Os10g0533100</t>
+  </si>
+  <si>
+    <t>Os11g0155600</t>
+  </si>
+  <si>
+    <t>Os11g0177400</t>
+  </si>
+  <si>
+    <t>Os11g0216300</t>
+  </si>
+  <si>
+    <t>Os11g0416900</t>
+  </si>
+  <si>
+    <t>Os11g0546000</t>
+  </si>
+  <si>
+    <t>Os12g0562700</t>
+  </si>
+  <si>
+    <t>Os08g0544400</t>
+  </si>
+  <si>
+    <t>Os12g0239900</t>
+  </si>
+  <si>
+    <t>Os12g0409700</t>
+  </si>
+  <si>
+    <t>Os01g0837700</t>
+  </si>
+  <si>
+    <t>Os01g0919800</t>
+  </si>
+  <si>
+    <t>Os02g0745100</t>
+  </si>
+  <si>
+    <t>Os01g0279100</t>
+  </si>
+  <si>
+    <t>Os01g0508100</t>
+  </si>
+  <si>
+    <t>Os01g0919900</t>
+  </si>
+  <si>
+    <t>Os06g0127900</t>
+  </si>
+  <si>
+    <t>Os09g0272000</t>
+  </si>
+  <si>
+    <t>Os01g0507700</t>
+  </si>
+  <si>
+    <t>Os01g0933200</t>
+  </si>
+  <si>
+    <t>Os01g0976300</t>
+  </si>
+  <si>
+    <t>Os02g0510600</t>
+  </si>
+  <si>
+    <t>Os02g0530100</t>
+  </si>
+  <si>
+    <t>Os03g0111400</t>
+  </si>
+  <si>
+    <t>Os03g0120400</t>
+  </si>
+  <si>
+    <t>Os03g0383900</t>
+  </si>
+  <si>
+    <t>Os03g0751600</t>
+  </si>
+  <si>
+    <t>Os04g0244800</t>
+  </si>
+  <si>
+    <t>Os04g0390100</t>
+  </si>
+  <si>
+    <t>Os04g0667600</t>
+  </si>
+  <si>
+    <t>Os07g0298900</t>
+  </si>
+  <si>
+    <t>Os07g0671400</t>
+  </si>
+  <si>
+    <t>Os08g0205400</t>
+  </si>
+  <si>
+    <t>Os08g0405700</t>
+  </si>
+  <si>
+    <t>Os09g0364800</t>
+  </si>
+  <si>
+    <t>Os09g0408500</t>
+  </si>
+  <si>
+    <t>Os10g0506100</t>
+  </si>
+  <si>
+    <t>Os12g0421000</t>
+  </si>
+  <si>
+    <t>Os03g0571700</t>
+  </si>
+  <si>
+    <t>Os03g0572900</t>
+  </si>
+  <si>
+    <t>Os03g0626700</t>
+  </si>
+  <si>
+    <t>Os03g0839200</t>
+  </si>
+  <si>
+    <t>Os03g0858800</t>
+  </si>
+  <si>
+    <t>Os05g0554000</t>
+  </si>
+  <si>
+    <t>Os06g0495100</t>
+  </si>
+  <si>
+    <t>Os07g0502200</t>
+  </si>
+  <si>
+    <t>Os07g0516600</t>
+  </si>
+  <si>
+    <t>Os10g0206800</t>
+  </si>
+  <si>
+    <t>Os10g0344900</t>
+  </si>
+  <si>
+    <t>Os10g0345100</t>
+  </si>
+  <si>
+    <t>Os11g0129200</t>
+  </si>
+  <si>
+    <t>Os12g0125500</t>
+  </si>
+  <si>
+    <t>Os12g0126000</t>
+  </si>
+  <si>
+    <t>Os12g0615700</t>
+  </si>
+  <si>
+    <t>Os04g0401000</t>
+  </si>
+  <si>
+    <t>Os07g0606900</t>
+  </si>
+  <si>
+    <t>Os05g0138300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8063,6 +10802,19 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -8112,7 +10864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8143,6 +10895,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8462,8 +11232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C642F36-F08D-4C8D-B897-3B13CA109DFB}">
   <dimension ref="A1:M446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="A354" sqref="A354"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20591,9 +23361,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A7E412-07FC-44C0-936A-0D3E8BE75130}">
-  <dimension ref="A1:A484"/>
+  <dimension ref="A1:A1300"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20601,2214 +23373,6504 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
-        <v>2317</v>
+      <c r="A1" s="19" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="13" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="13" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="13" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="13" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="13" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="13" t="s">
-        <v>625</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="13" t="s">
-        <v>2323</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="13" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="13" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="13" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="13" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="13" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="13" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="13" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="13" t="s">
-        <v>803</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13" t="s">
-        <v>2333</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="13" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="13" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="13" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="13" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="13" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="13" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="13" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="13" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="13" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="13" t="s">
-        <v>755</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="13" t="s">
-        <v>2343</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="13" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="13" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="13" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="13" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="13" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="13" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="13" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="13" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="13" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="13" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="13" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="13" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="13" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="13" t="s">
-        <v>788</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="13" t="s">
-        <v>2357</v>
+        <v>788</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="13" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="13" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="13" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="13" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="13" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="13" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="13" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="13" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="13" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="13" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="13" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="13" t="s">
-        <v>775</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="13" t="s">
-        <v>2369</v>
+        <v>775</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="13" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="13" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="13" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="13" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="13" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="13" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="13" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="13" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="13" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="13" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="13" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="13" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="13" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="13" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="13" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="13" t="s">
-        <v>804</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>2385</v>
+        <v>804</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="13" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="13" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="13" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="13" t="s">
-        <v>611</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="13" t="s">
-        <v>2389</v>
+        <v>611</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="13" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="13" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="13" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="13" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="13" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="13" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="13" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="13" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="13" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="13" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="13" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="13" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="13" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="13" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="13" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="13" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="13" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="13" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="13" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="13" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="13" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="13" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="13" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="13" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="13" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="13" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="13" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="13" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="13" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="13" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="13" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="13" t="s">
-        <v>660</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="13" t="s">
-        <v>2421</v>
+        <v>660</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="13" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="13" t="s">
-        <v>600</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="13" t="s">
-        <v>2423</v>
+        <v>600</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="13" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="13" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="13" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="13" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="13" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="13" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="13" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="13" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="13" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="13" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="13" t="s">
-        <v>736</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="13" t="s">
-        <v>2434</v>
+        <v>736</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="13" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="13" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="13" t="s">
-        <v>839</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="13" t="s">
-        <v>2437</v>
+        <v>839</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="13" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="13" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="13" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="13" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="13" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="13" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="13" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="13" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="13" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="13" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="13" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="13" t="s">
-        <v>661</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="13" t="s">
-        <v>2449</v>
+        <v>661</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="13" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="13" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="13" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="13" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="13" t="s">
-        <v>707</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="13" t="s">
-        <v>2454</v>
+        <v>707</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="13" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="13" t="s">
-        <v>768</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="13" t="s">
-        <v>2456</v>
+        <v>768</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="13" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="13" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="13" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="13" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="13" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="13" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="13" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="13" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="13" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="13" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="13" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="13" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="13" t="s">
-        <v>633</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="13" t="s">
-        <v>2469</v>
+        <v>633</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="13" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="13" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="13" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="13" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="13" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="13" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="13" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="13" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="13" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="13" t="s">
-        <v>952</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="13" t="s">
-        <v>612</v>
+        <v>952</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="13" t="s">
-        <v>2479</v>
+        <v>612</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="13" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="13" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="13" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="13" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="13" t="s">
-        <v>704</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="13" t="s">
-        <v>2484</v>
+        <v>704</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="13" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="13" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="13" t="s">
-        <v>756</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="13" t="s">
-        <v>2487</v>
+        <v>756</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="13" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="13" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="13" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="13" t="s">
-        <v>980</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="13" t="s">
-        <v>2491</v>
+        <v>980</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="13" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="13" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="13" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="13" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="13" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="13" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="13" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="13" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="13" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="13" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="13" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="13" t="s">
-        <v>745</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="13" t="s">
-        <v>2503</v>
+        <v>745</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="13" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="13" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="13" t="s">
-        <v>624</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="13" t="s">
-        <v>2506</v>
+        <v>624</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="13" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="13" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="13" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="13" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="13" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="13" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="13" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="13" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="13" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="13" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="13" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="13" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="13" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="13" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="13" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="13" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="13" t="s">
-        <v>619</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="13" t="s">
-        <v>2523</v>
+        <v>619</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="13" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="13" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="13" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="13" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="13" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="13" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="13" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="13" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="13" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="13" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="13" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="13" t="s">
-        <v>626</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="13" t="s">
-        <v>2535</v>
+        <v>626</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="13" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="13" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="13" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="13" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="13" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="13" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="13" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="13" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="13" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="13" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="13" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="13" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="13" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="13" t="s">
-        <v>865</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="13" t="s">
-        <v>2549</v>
+        <v>865</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="13" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="13" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="13" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="13" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="13" t="s">
-        <v>710</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="13" t="s">
-        <v>2554</v>
+        <v>710</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="13" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="13" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="13" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="13" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="13" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="13" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="13" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="13" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="13" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="13" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="13" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="13" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="13" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="13" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="13" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="13" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="13" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="13" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="13" t="s">
-        <v>663</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="13" t="s">
-        <v>2573</v>
+        <v>663</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="13" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="13" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="13" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="13" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="13" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="13" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="13" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="13" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="13" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="13" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="13" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="13" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="13" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="13" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="13" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="13" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="13" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="13" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="13" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="13" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="13" t="s">
-        <v>672</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="13" t="s">
-        <v>2594</v>
+        <v>672</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="13" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="13" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="13" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="13" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="13" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="13" t="s">
-        <v>909</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="13" t="s">
-        <v>2600</v>
+        <v>909</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="13" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="13" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="13" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="13" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="13" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="13" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="13" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="13" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="13" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="13" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="13" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="13" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="13" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="13" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="13" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="13" t="s">
-        <v>729</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="13" t="s">
-        <v>2616</v>
+        <v>729</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="13" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="13" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="13" t="s">
-        <v>906</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="13" t="s">
-        <v>2619</v>
+        <v>906</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="13" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="13" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="13" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="13" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="13" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="13" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="13" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="13" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="13" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="13" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="13" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="13" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="13" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="13" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="13" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="13" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="13" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="13" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="13" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="13" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="13" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="13" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="13" t="s">
-        <v>781</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="13" t="s">
-        <v>2642</v>
+        <v>781</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="13" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="13" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="13" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="13" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="13" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="13" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="13" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="13" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="13" t="s">
-        <v>793</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="13" t="s">
-        <v>2651</v>
+        <v>793</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="13" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="13" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="13" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="13" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="13" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="13" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="13" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="13" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="13" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="13" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="13" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="13" t="s">
         <v>2662</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
-      <c r="A380"/>
-    </row>
     <row r="381" spans="1:1">
-      <c r="A381"/>
+      <c r="A381" s="14" t="s">
+        <v>2663</v>
+      </c>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382"/>
+      <c r="A382" s="14" t="s">
+        <v>2664</v>
+      </c>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383"/>
+      <c r="A383" s="14" t="s">
+        <v>2665</v>
+      </c>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384"/>
+      <c r="A384" s="14" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385"/>
+      <c r="A385" s="14" t="s">
+        <v>2667</v>
+      </c>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386"/>
+      <c r="A386" s="14" t="s">
+        <v>2668</v>
+      </c>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387"/>
+      <c r="A387" s="14" t="s">
+        <v>2669</v>
+      </c>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388"/>
+      <c r="A388" s="14" t="s">
+        <v>2670</v>
+      </c>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389"/>
+      <c r="A389" s="14" t="s">
+        <v>2671</v>
+      </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390"/>
+      <c r="A390" s="14" t="s">
+        <v>2672</v>
+      </c>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391"/>
+      <c r="A391" s="14" t="s">
+        <v>2673</v>
+      </c>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392"/>
+      <c r="A392" s="14" t="s">
+        <v>2674</v>
+      </c>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393"/>
+      <c r="A393" s="14" t="s">
+        <v>2675</v>
+      </c>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394"/>
+      <c r="A394" s="14" t="s">
+        <v>2676</v>
+      </c>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395"/>
+      <c r="A395" s="14" t="s">
+        <v>2677</v>
+      </c>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396"/>
+      <c r="A396" s="14" t="s">
+        <v>2678</v>
+      </c>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397"/>
+      <c r="A397" s="14" t="s">
+        <v>2679</v>
+      </c>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398"/>
+      <c r="A398" s="14" t="s">
+        <v>2680</v>
+      </c>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399"/>
+      <c r="A399" s="14" t="s">
+        <v>2681</v>
+      </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400"/>
+      <c r="A400" s="14" t="s">
+        <v>2682</v>
+      </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401"/>
+      <c r="A401" s="14" t="s">
+        <v>2683</v>
+      </c>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402"/>
+      <c r="A402" s="14" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403"/>
+      <c r="A403" s="14" t="s">
+        <v>2685</v>
+      </c>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404"/>
+      <c r="A404" s="14" t="s">
+        <v>2686</v>
+      </c>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405"/>
+      <c r="A405" s="14" t="s">
+        <v>2687</v>
+      </c>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406"/>
+      <c r="A406" s="14" t="s">
+        <v>2688</v>
+      </c>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407"/>
+      <c r="A407" s="14" t="s">
+        <v>2689</v>
+      </c>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408"/>
+      <c r="A408" s="14" t="s">
+        <v>2690</v>
+      </c>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409"/>
+      <c r="A409" s="14" t="s">
+        <v>2691</v>
+      </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410"/>
+      <c r="A410" s="14" t="s">
+        <v>2692</v>
+      </c>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411"/>
+      <c r="A411" s="14" t="s">
+        <v>2693</v>
+      </c>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412"/>
+      <c r="A412" s="14" t="s">
+        <v>2694</v>
+      </c>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413"/>
+      <c r="A413" s="14" t="s">
+        <v>2695</v>
+      </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414"/>
+      <c r="A414" s="14" t="s">
+        <v>2696</v>
+      </c>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415"/>
+      <c r="A415" s="14" t="s">
+        <v>2697</v>
+      </c>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416"/>
+      <c r="A416" s="14" t="s">
+        <v>2698</v>
+      </c>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417"/>
+      <c r="A417" s="14" t="s">
+        <v>2699</v>
+      </c>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418"/>
+      <c r="A418" s="14" t="s">
+        <v>2700</v>
+      </c>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419"/>
+      <c r="A419" s="14" t="s">
+        <v>2701</v>
+      </c>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420"/>
+      <c r="A420" s="14" t="s">
+        <v>2702</v>
+      </c>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421"/>
+      <c r="A421" s="14" t="s">
+        <v>2703</v>
+      </c>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422"/>
+      <c r="A422" s="14" t="s">
+        <v>2704</v>
+      </c>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423"/>
+      <c r="A423" s="14" t="s">
+        <v>2705</v>
+      </c>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424"/>
+      <c r="A424" s="14" t="s">
+        <v>2706</v>
+      </c>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425"/>
+      <c r="A425" s="14" t="s">
+        <v>2707</v>
+      </c>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426"/>
+      <c r="A426" s="14" t="s">
+        <v>2708</v>
+      </c>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427"/>
+      <c r="A427" s="14" t="s">
+        <v>2709</v>
+      </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428"/>
+      <c r="A428" s="14" t="s">
+        <v>2710</v>
+      </c>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429"/>
+      <c r="A429" s="14" t="s">
+        <v>2711</v>
+      </c>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430"/>
+      <c r="A430" s="14" t="s">
+        <v>2712</v>
+      </c>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431"/>
+      <c r="A431" s="14" t="s">
+        <v>2713</v>
+      </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432"/>
+      <c r="A432" s="14" t="s">
+        <v>2714</v>
+      </c>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433"/>
+      <c r="A433" s="14" t="s">
+        <v>2715</v>
+      </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434"/>
+      <c r="A434" s="14" t="s">
+        <v>2716</v>
+      </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435"/>
+      <c r="A435" s="14" t="s">
+        <v>2717</v>
+      </c>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436"/>
+      <c r="A436" s="14" t="s">
+        <v>2718</v>
+      </c>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437"/>
+      <c r="A437" s="14" t="s">
+        <v>2719</v>
+      </c>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438"/>
+      <c r="A438" s="14" t="s">
+        <v>2720</v>
+      </c>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439"/>
+      <c r="A439" s="14" t="s">
+        <v>2721</v>
+      </c>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440"/>
+      <c r="A440" s="14" t="s">
+        <v>2722</v>
+      </c>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441"/>
+      <c r="A441" s="14" t="s">
+        <v>2723</v>
+      </c>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442"/>
+      <c r="A442" s="14" t="s">
+        <v>2724</v>
+      </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443"/>
+      <c r="A443" s="14" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444"/>
+      <c r="A444" s="14" t="s">
+        <v>2726</v>
+      </c>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445"/>
+      <c r="A445" s="14" t="s">
+        <v>2727</v>
+      </c>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446"/>
+      <c r="A446" s="14" t="s">
+        <v>2728</v>
+      </c>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447"/>
+      <c r="A447" s="14" t="s">
+        <v>2729</v>
+      </c>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448"/>
+      <c r="A448" s="14" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449"/>
+      <c r="A449" s="14" t="s">
+        <v>2731</v>
+      </c>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450"/>
+      <c r="A450" s="14" t="s">
+        <v>2732</v>
+      </c>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451"/>
+      <c r="A451" s="14" t="s">
+        <v>2733</v>
+      </c>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452"/>
+      <c r="A452" s="14" t="s">
+        <v>2734</v>
+      </c>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453"/>
+      <c r="A453" s="14" t="s">
+        <v>2735</v>
+      </c>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454"/>
+      <c r="A454" s="14" t="s">
+        <v>2736</v>
+      </c>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455"/>
+      <c r="A455" s="14" t="s">
+        <v>2737</v>
+      </c>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456"/>
+      <c r="A456" s="14" t="s">
+        <v>2738</v>
+      </c>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457"/>
+      <c r="A457" s="14" t="s">
+        <v>2739</v>
+      </c>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458"/>
+      <c r="A458" s="14" t="s">
+        <v>2740</v>
+      </c>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459"/>
+      <c r="A459" s="14" t="s">
+        <v>2741</v>
+      </c>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460"/>
+      <c r="A460" s="14" t="s">
+        <v>2742</v>
+      </c>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461"/>
+      <c r="A461" s="14" t="s">
+        <v>2743</v>
+      </c>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462"/>
+      <c r="A462" s="14" t="s">
+        <v>2744</v>
+      </c>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463"/>
+      <c r="A463" s="14" t="s">
+        <v>2745</v>
+      </c>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464"/>
+      <c r="A464" s="14" t="s">
+        <v>2746</v>
+      </c>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465"/>
+      <c r="A465" s="14" t="s">
+        <v>2747</v>
+      </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466"/>
+      <c r="A466" s="14" t="s">
+        <v>2748</v>
+      </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467"/>
+      <c r="A467" s="14" t="s">
+        <v>2749</v>
+      </c>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468"/>
+      <c r="A468" s="14" t="s">
+        <v>2750</v>
+      </c>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469"/>
+      <c r="A469" s="14" t="s">
+        <v>2751</v>
+      </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470"/>
+      <c r="A470" s="14" t="s">
+        <v>2752</v>
+      </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471"/>
+      <c r="A471" s="14" t="s">
+        <v>2753</v>
+      </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472"/>
+      <c r="A472" s="14" t="s">
+        <v>2754</v>
+      </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473"/>
+      <c r="A473" s="14" t="s">
+        <v>2755</v>
+      </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474"/>
+      <c r="A474" s="14" t="s">
+        <v>2756</v>
+      </c>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475"/>
+      <c r="A475" s="14" t="s">
+        <v>2757</v>
+      </c>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476"/>
+      <c r="A476" s="14" t="s">
+        <v>2758</v>
+      </c>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477"/>
+      <c r="A477" s="14" t="s">
+        <v>2759</v>
+      </c>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478"/>
+      <c r="A478" s="14" t="s">
+        <v>2760</v>
+      </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479"/>
+      <c r="A479" s="14" t="s">
+        <v>2761</v>
+      </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480"/>
+      <c r="A480" s="14" t="s">
+        <v>2762</v>
+      </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481"/>
+      <c r="A481" s="14" t="s">
+        <v>2763</v>
+      </c>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482"/>
+      <c r="A482" s="14" t="s">
+        <v>2764</v>
+      </c>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483"/>
+      <c r="A483" s="14" t="s">
+        <v>2765</v>
+      </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484"/>
+      <c r="A484" s="14" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="14" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="14" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="14" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="14" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="14" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="14" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="14" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="14" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="14" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="14" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="14" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="14" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="14" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="14" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="14" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="14" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="14" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="14" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="14" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="14" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="14" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="14" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="14" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="14" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="14" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="14" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="14" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="14" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="14" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="14" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="14" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="14" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="14" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="14" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="14" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="14" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="14" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="14" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="14" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="14" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="14" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="14" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="14" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="14" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="14" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="14" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="14" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="14" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="14" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="14" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="14" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="14" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="14" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="14" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="14" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="14" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="14" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="14" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="14" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="14" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="14" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="14" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="14" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="14" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="14" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="14" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="14" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="14" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="14" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="14" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="14" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="14" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="14" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="14" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="14" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="14" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="14" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="14" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="14" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="14" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="14" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="14" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="14" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="14" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="14" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="14" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="14" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="14" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="14" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="14" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="14" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="14" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="14" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" s="14" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" s="14" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" s="14" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="14" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="14" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="14" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="14" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="14" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="14" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="14" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" s="14" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="14" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" s="14" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="14" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="14" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="14" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="14" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="14" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="14" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="14" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="14" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="14" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="14" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="14" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="14" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="14" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="14" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" s="14" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="14" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" s="14" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" s="14" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" s="14" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" s="14" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" s="14" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" s="14" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" s="14" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="14" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" s="14" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="14" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="14" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" s="14" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" s="14" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" s="14" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" s="14" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" s="14" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="14" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" s="14" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="14" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" s="14" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" s="14" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="14" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="14" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="14" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" s="14" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="14" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" s="14" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="14" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" s="14" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="14" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="14" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="14" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="14" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="14" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="14" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="14" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="14" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="14" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" s="14" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" s="14" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="14" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="14" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" s="14" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" s="14" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" s="14" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" s="14" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="14" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="14" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="14" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" s="14" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" s="14" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" s="14" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" s="14" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" s="14" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" s="14" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" s="14" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" s="14" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" s="14" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" s="14" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" s="14" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" s="14" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" s="14" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" s="14" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" s="14" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" s="14" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="14" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" s="14" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="14" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" s="14" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" s="14" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" s="14" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" s="14" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" s="14" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" s="14" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" s="14" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" s="14" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" s="14" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" s="14" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" s="14" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" s="14" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" s="14" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" s="14" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" s="14" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" s="14" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" s="14" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" s="14" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" s="14" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" s="14" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" s="14" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" s="14" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" s="14" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" s="14" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" s="14" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" s="14" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" s="14" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" s="14" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" s="14" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" s="14" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" s="14" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" s="14" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" s="14" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" s="14" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" s="14" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" s="14" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" s="14" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" s="14" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" s="14" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" s="14" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" s="14" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" s="14" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" s="14" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" s="14" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" s="14" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" s="14" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" s="14" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" s="14" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" s="14" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" s="14" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" s="14" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" s="14" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" s="14" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" s="14" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" s="14" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" s="14" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" s="14" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" s="14" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" s="14" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" s="14" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" s="14" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" s="14" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" s="14" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" s="14" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" s="14" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" s="14" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" s="14" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" s="14" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" s="14" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" s="14" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" s="14" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" s="14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" s="14" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" s="14" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" s="14" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752" s="14" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" s="14" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" s="14" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" s="14" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" s="14" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" s="14" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" s="14" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" s="14" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" s="14" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" s="14" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" s="14" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" s="14" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" s="14" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" s="14" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" s="14" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" s="14" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" s="14" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" s="14" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" s="14" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" s="14" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" s="14" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" s="14" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" s="14" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" s="14" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" s="14" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" s="14" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" s="14" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" s="14" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" s="14" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" s="14" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" s="14" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" s="14" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" s="14" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" s="14" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" s="14" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" s="14" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" s="14" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" s="14" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" s="14" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791" s="14" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792" s="14" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" s="14" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794" s="14" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" s="14" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" s="14" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" s="14" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" s="14" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" s="14" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" s="14" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" s="14" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" s="14" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" s="14" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" s="14" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" s="14" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" s="14" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807" s="14" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" s="14" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" s="14" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810" s="14" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" s="14" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812" s="14" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813" s="14" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814" s="14" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815" s="14" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816" s="14" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" s="14" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" s="14" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819" s="14" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" s="14" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" s="14" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822" s="14" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" s="14" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" s="14" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" s="14" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826" s="14" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827" s="14" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" s="14" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" s="14" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" s="14" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" s="14" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" s="14" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" s="14" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834" s="14" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835" s="14" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836" s="14" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837" s="14" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" s="14" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839" s="14" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840" s="14" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841" s="14" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842" s="14" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843" s="14" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" s="14" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845" s="14" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846" s="14" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847" s="14" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848" s="14" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" s="14" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" ht="15.75">
+      <c r="A850" s="15" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" ht="15.75">
+      <c r="A851" s="15" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" ht="15.75">
+      <c r="A852" s="15" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" ht="15.75">
+      <c r="A853" s="15" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" ht="15.75">
+      <c r="A854" s="15" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" ht="15.75">
+      <c r="A855" s="15" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" ht="15.75">
+      <c r="A856" s="15" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" ht="15.75">
+      <c r="A857" s="15" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" ht="15.75">
+      <c r="A858" s="15" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" ht="15.75">
+      <c r="A859" s="15" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" ht="15.75">
+      <c r="A860" s="15" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" ht="15.75">
+      <c r="A861" s="15" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" ht="15.75">
+      <c r="A862" s="15" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" ht="15.75">
+      <c r="A863" s="15" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" ht="15.75">
+      <c r="A864" s="15" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" ht="15.75">
+      <c r="A865" s="15" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" ht="15.75">
+      <c r="A866" s="15" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" ht="15.75">
+      <c r="A867" s="15" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" ht="15.75">
+      <c r="A868" s="15" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" ht="15.75">
+      <c r="A869" s="15" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" ht="15.75">
+      <c r="A870" s="15" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" ht="15.75">
+      <c r="A871" s="15" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" ht="15.75">
+      <c r="A872" s="15" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" ht="15.75">
+      <c r="A873" s="15" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" ht="15.75">
+      <c r="A874" s="15" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" ht="15.75">
+      <c r="A875" s="15" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" ht="15.75">
+      <c r="A876" s="15" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" ht="15.75">
+      <c r="A877" s="15" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" ht="15.75">
+      <c r="A878" s="15" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" ht="15.75">
+      <c r="A879" s="15" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" ht="15.75">
+      <c r="A880" s="15" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" ht="15.75">
+      <c r="A881" s="15" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" ht="15.75">
+      <c r="A882" s="15" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" ht="15.75">
+      <c r="A883" s="15" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" ht="15.75">
+      <c r="A884" s="15" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" ht="15.75">
+      <c r="A885" s="15" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" ht="15.75">
+      <c r="A886" s="15" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" ht="15.75">
+      <c r="A887" s="15" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" ht="15.75">
+      <c r="A888" s="15" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" ht="15.75">
+      <c r="A889" s="15" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" ht="15.75">
+      <c r="A890" s="15" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" ht="15.75">
+      <c r="A891" s="15" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" ht="15.75">
+      <c r="A892" s="15" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" ht="15.75">
+      <c r="A893" s="15" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" ht="15.75">
+      <c r="A894" s="15" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" ht="15.75">
+      <c r="A895" s="15" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" ht="15.75">
+      <c r="A896" s="15" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" ht="15.75">
+      <c r="A897" s="15" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" ht="15.75">
+      <c r="A898" s="15" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" ht="15.75">
+      <c r="A899" s="15" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900" s="14" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901" s="14" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902" s="14" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903" s="14" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904" s="14" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905" s="14" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906" s="14" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907" s="14" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908" s="14" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909" s="14" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910" s="14" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911" s="14" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912" s="14" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1">
+      <c r="A913" s="14" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914" s="14" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915" s="14" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916" s="14" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918" s="14" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919" s="14" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920" s="14" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921" s="14" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922" s="14" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923" s="14" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1">
+      <c r="A924" s="14" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925" s="14" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926" s="14" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927" s="14" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1">
+      <c r="A928" s="14" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929" s="14" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930" s="14" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931" s="14" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932" s="14" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933" s="14" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934" s="14" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935" s="14" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936" s="14" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937" s="14" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938" s="14" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939" s="14" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940" s="14" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941" s="14" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942" s="14" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943" s="14" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944" s="14" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945" s="14" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946" s="14" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947" s="14" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948" s="14" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949" s="14" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950" s="14" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951" s="14" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952" s="14" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953" s="14" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954" s="14" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955" s="14" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956" s="14" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957" s="14" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958" s="14" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959" s="14" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960" s="14" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961" s="14" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962" s="14" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963" s="14" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964" s="14" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965" s="14" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966" s="14" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967" s="14" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968" s="14" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969" s="14" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970" s="14" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971" s="14" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972" s="14" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973" s="14" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974" s="14" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975" s="14" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976" s="14" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977" s="14" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979" s="14" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980" s="14" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" s="14" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983" s="14" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984" s="14" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985" s="14" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986" s="14" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988" s="14" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" s="14" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990" s="14" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991" s="14" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992" s="14" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993" s="14" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994" s="14" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995" s="14" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996" s="14" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997" s="14" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998" s="14" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999" s="14" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000" s="14" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001" s="14" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1">
+      <c r="A1002" s="14" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1">
+      <c r="A1003" s="14" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004" s="14" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1">
+      <c r="A1005" s="14" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1">
+      <c r="A1006" s="14" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1">
+      <c r="A1007" s="14" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008" s="14" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009" s="14" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1">
+      <c r="A1010" s="14" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1">
+      <c r="A1011" s="14" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1">
+      <c r="A1012" s="14" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1">
+      <c r="A1013" s="14" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1">
+      <c r="A1014" s="14" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1">
+      <c r="A1015" s="14" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1">
+      <c r="A1016" s="14" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1">
+      <c r="A1017" s="14" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1">
+      <c r="A1018" s="14" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1">
+      <c r="A1019" s="14" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1">
+      <c r="A1020" s="14" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1">
+      <c r="A1021" s="14" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1">
+      <c r="A1022" s="14" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1">
+      <c r="A1023" s="14" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1">
+      <c r="A1024" s="14" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1">
+      <c r="A1025" s="14" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1">
+      <c r="A1026" s="14" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1">
+      <c r="A1027" s="14" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1">
+      <c r="A1028" s="14" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1">
+      <c r="A1029" s="14" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1">
+      <c r="A1030" s="14" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1">
+      <c r="A1031" s="14" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1">
+      <c r="A1032" s="14" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1">
+      <c r="A1033" s="14" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1">
+      <c r="A1034" s="14" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1">
+      <c r="A1035" s="14" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1">
+      <c r="A1036" s="14" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1">
+      <c r="A1037" s="14" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1">
+      <c r="A1038" s="14" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1">
+      <c r="A1039" s="14" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1">
+      <c r="A1040" s="14" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1">
+      <c r="A1041" s="14" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1">
+      <c r="A1042" s="14" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1">
+      <c r="A1043" s="14" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1">
+      <c r="A1044" s="14" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" ht="15.75">
+      <c r="A1045" s="16" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" ht="15.75">
+      <c r="A1046" s="16" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" ht="15.75">
+      <c r="A1047" s="16" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" ht="15.75">
+      <c r="A1048" s="16" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" ht="15.75">
+      <c r="A1049" s="16" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" ht="15.75">
+      <c r="A1050" s="16" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" ht="15.75">
+      <c r="A1051" s="16" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" ht="15.75">
+      <c r="A1052" s="16" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" ht="15.75">
+      <c r="A1053" s="16" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" ht="15.75">
+      <c r="A1054" s="16" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" ht="15.75">
+      <c r="A1055" s="16" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" ht="15.75">
+      <c r="A1056" s="16" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" ht="15.75">
+      <c r="A1057" s="16" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" ht="15.75">
+      <c r="A1058" s="16" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" ht="15.75">
+      <c r="A1059" s="16" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" ht="15.75">
+      <c r="A1060" s="16" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" ht="15.75">
+      <c r="A1061" s="16" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" ht="15.75">
+      <c r="A1062" s="16" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" ht="15.75">
+      <c r="A1063" s="16" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" ht="15.75">
+      <c r="A1064" s="16" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" ht="15.75">
+      <c r="A1065" s="16" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" ht="15.75">
+      <c r="A1066" s="16" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" ht="15.75">
+      <c r="A1067" s="16" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" ht="15.75">
+      <c r="A1068" s="16" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" ht="15.75">
+      <c r="A1069" s="16" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" ht="15.75">
+      <c r="A1070" s="16" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" ht="15.75">
+      <c r="A1071" s="16" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" ht="15.75">
+      <c r="A1072" s="16" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" ht="15.75">
+      <c r="A1073" s="16" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" ht="15.75">
+      <c r="A1074" s="16" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" ht="15.75">
+      <c r="A1075" s="16" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" ht="15.75">
+      <c r="A1076" s="16" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" ht="15.75">
+      <c r="A1077" s="16" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" ht="15.75">
+      <c r="A1078" s="16" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" ht="15.75">
+      <c r="A1079" s="16" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" ht="15.75">
+      <c r="A1080" s="16" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" ht="15.75">
+      <c r="A1081" s="16" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" ht="15.75">
+      <c r="A1082" s="16" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" ht="15.75">
+      <c r="A1083" s="16" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" ht="15.75">
+      <c r="A1084" s="16" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" ht="15.75">
+      <c r="A1085" s="16" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" ht="15.75">
+      <c r="A1086" s="16" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" ht="15.75">
+      <c r="A1087" s="16" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" ht="15.75">
+      <c r="A1088" s="16" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" ht="15.75">
+      <c r="A1089" s="16" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" ht="15.75">
+      <c r="A1090" s="16" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" ht="15.75">
+      <c r="A1091" s="16" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" ht="15.75">
+      <c r="A1092" s="16" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" ht="15.75">
+      <c r="A1093" s="16" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" ht="15.75">
+      <c r="A1094" s="16" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" ht="15.75">
+      <c r="A1095" s="16" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" ht="15.75">
+      <c r="A1096" s="16" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" ht="15.75">
+      <c r="A1097" s="16" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" ht="15.75">
+      <c r="A1098" s="16" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" ht="15.75">
+      <c r="A1099" s="16" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" ht="15.75">
+      <c r="A1100" s="16" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" ht="15.75">
+      <c r="A1101" s="16" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" ht="15.75">
+      <c r="A1102" s="16" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" ht="15.75">
+      <c r="A1103" s="16" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" ht="15.75">
+      <c r="A1104" s="16" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" ht="15.75">
+      <c r="A1105" s="16" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" ht="15.75">
+      <c r="A1106" s="16" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" ht="15.75">
+      <c r="A1107" s="16" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" ht="15.75">
+      <c r="A1108" s="16" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" ht="15.75">
+      <c r="A1109" s="16" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" ht="15.75">
+      <c r="A1110" s="16" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" ht="15.75">
+      <c r="A1111" s="16" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" ht="15.75">
+      <c r="A1112" s="16" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" ht="15.75">
+      <c r="A1113" s="16" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" ht="15.75">
+      <c r="A1114" s="16" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" ht="15.75">
+      <c r="A1115" s="16" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" ht="15.75">
+      <c r="A1116" s="16" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" ht="15.75">
+      <c r="A1117" s="16" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" ht="15.75">
+      <c r="A1118" s="16" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" ht="15.75">
+      <c r="A1119" s="16" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" ht="15.75">
+      <c r="A1120" s="16" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" ht="15.75">
+      <c r="A1121" s="16" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" ht="15.75">
+      <c r="A1122" s="16" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" ht="15.75">
+      <c r="A1123" s="16" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" ht="15.75">
+      <c r="A1124" s="16" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" ht="15.75">
+      <c r="A1125" s="16" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" ht="15.75">
+      <c r="A1126" s="16" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" ht="15.75">
+      <c r="A1127" s="16" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" ht="15.75">
+      <c r="A1128" s="16" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" ht="15.75">
+      <c r="A1129" s="16" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" ht="15.75">
+      <c r="A1130" s="16" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" ht="15.75">
+      <c r="A1131" s="16" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" ht="15.75">
+      <c r="A1132" s="16" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" ht="15.75">
+      <c r="A1133" s="16" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" ht="15.75">
+      <c r="A1134" s="16" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" ht="15.75">
+      <c r="A1135" s="16" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" ht="15.75">
+      <c r="A1136" s="16" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" ht="15.75">
+      <c r="A1137" s="16" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" ht="15.75">
+      <c r="A1138" s="16" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" ht="15.75">
+      <c r="A1139" s="16" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" ht="15.75">
+      <c r="A1140" s="16" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" ht="15.75">
+      <c r="A1141" s="16" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" ht="15.75">
+      <c r="A1142" s="16" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" ht="15.75">
+      <c r="A1143" s="16" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" ht="15.75">
+      <c r="A1144" s="16" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" ht="15.75">
+      <c r="A1145" s="16" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" ht="15.75">
+      <c r="A1146" s="16" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" ht="15.75">
+      <c r="A1147" s="16" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" ht="15.75">
+      <c r="A1148" s="16" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" ht="15.75">
+      <c r="A1149" s="16" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" ht="15.75">
+      <c r="A1150" s="16" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" ht="15.75">
+      <c r="A1151" s="16" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" ht="15.75">
+      <c r="A1152" s="16" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" ht="15.75">
+      <c r="A1153" s="16" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" ht="15.75">
+      <c r="A1154" s="16" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" ht="15.75">
+      <c r="A1155" s="16" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" ht="15.75">
+      <c r="A1156" s="16" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" ht="15.75">
+      <c r="A1157" s="16" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" ht="15.75">
+      <c r="A1158" s="16" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" ht="15.75">
+      <c r="A1159" s="16" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" ht="15.75">
+      <c r="A1160" s="16" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" ht="15.75">
+      <c r="A1161" s="16" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" ht="15.75">
+      <c r="A1162" s="16" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" ht="15.75">
+      <c r="A1163" s="16" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" ht="15.75">
+      <c r="A1164" s="16" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" ht="15.75">
+      <c r="A1165" s="16" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" ht="15.75">
+      <c r="A1166" s="16" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" ht="15.75">
+      <c r="A1167" s="16" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" ht="15.75">
+      <c r="A1168" s="16" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" ht="15.75">
+      <c r="A1169" s="16" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" ht="15.75">
+      <c r="A1170" s="16" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" ht="15.75">
+      <c r="A1171" s="16" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" ht="15.75">
+      <c r="A1172" s="16" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" ht="15.75">
+      <c r="A1173" s="16" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" ht="15.75">
+      <c r="A1174" s="16" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" ht="15.75">
+      <c r="A1175" s="16" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" ht="15.75">
+      <c r="A1176" s="16" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" ht="15.75">
+      <c r="A1177" s="16" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" ht="15.75">
+      <c r="A1178" s="16" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" ht="15.75">
+      <c r="A1179" s="16" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" ht="15.75">
+      <c r="A1180" s="16" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" ht="15.75">
+      <c r="A1181" s="16" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" ht="15.75">
+      <c r="A1182" s="16" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" ht="15.75">
+      <c r="A1183" s="16" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" ht="15.75">
+      <c r="A1184" s="16" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" ht="15.75">
+      <c r="A1185" s="16" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" ht="15.75">
+      <c r="A1186" s="16" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" ht="15.75">
+      <c r="A1187" s="16" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" ht="15.75">
+      <c r="A1188" s="16" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" ht="15.75">
+      <c r="A1189" s="16" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" ht="15.75">
+      <c r="A1190" s="16" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" ht="15.75">
+      <c r="A1191" s="16" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" ht="15.75">
+      <c r="A1192" s="16" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" ht="15.75">
+      <c r="A1193" s="16" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" ht="15.75">
+      <c r="A1194" s="16" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" ht="15.75">
+      <c r="A1195" s="16" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" ht="15.75">
+      <c r="A1196" s="16" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" ht="15.75">
+      <c r="A1197" s="16" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" ht="15.75">
+      <c r="A1198" s="16" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" ht="15.75">
+      <c r="A1199" s="16" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" ht="15.75">
+      <c r="A1200" s="16" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" ht="15.75">
+      <c r="A1201" s="16" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" ht="15.75">
+      <c r="A1202" s="16" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" ht="15.75">
+      <c r="A1203" s="16" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" ht="15.75">
+      <c r="A1204" s="16" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" ht="15.75">
+      <c r="A1205" s="16" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1">
+      <c r="A1206" s="17" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1">
+      <c r="A1207" s="17" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1">
+      <c r="A1208" s="17" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1">
+      <c r="A1209" s="18" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1">
+      <c r="A1210" s="18" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1">
+      <c r="A1211" s="18" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1">
+      <c r="A1212" s="18" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1">
+      <c r="A1213" s="18" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1">
+      <c r="A1214" s="18" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1">
+      <c r="A1215" s="18" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1">
+      <c r="A1216" s="18" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1">
+      <c r="A1217" s="18" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1">
+      <c r="A1218" s="18" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1">
+      <c r="A1219" s="18" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1">
+      <c r="A1220" s="18" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1">
+      <c r="A1221" s="18" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1">
+      <c r="A1222" s="18" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1">
+      <c r="A1223" s="18" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1">
+      <c r="A1224" s="18" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1">
+      <c r="A1225" s="18" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1">
+      <c r="A1226" s="18" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1">
+      <c r="A1227" s="18" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1">
+      <c r="A1228" s="18" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1">
+      <c r="A1229" s="18" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1">
+      <c r="A1230" s="18" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1">
+      <c r="A1231" s="18" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1">
+      <c r="A1232" s="18" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1">
+      <c r="A1233" s="18" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1">
+      <c r="A1234" s="18" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1">
+      <c r="A1235" s="18" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1">
+      <c r="A1236" s="18" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1">
+      <c r="A1237" s="18" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1">
+      <c r="A1238" s="18" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1">
+      <c r="A1239" s="18" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1">
+      <c r="A1240" s="18" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1">
+      <c r="A1241" s="18" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1">
+      <c r="A1242" s="18" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1">
+      <c r="A1243" s="18" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1">
+      <c r="A1244" s="18" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1">
+      <c r="A1245" s="18" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1">
+      <c r="A1246" s="18" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1">
+      <c r="A1247" s="18" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1">
+      <c r="A1248" s="18" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1">
+      <c r="A1249" s="18" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1">
+      <c r="A1250" s="18" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1">
+      <c r="A1251" s="18" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1">
+      <c r="A1252" s="18" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1">
+      <c r="A1253" s="18" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1">
+      <c r="A1254" s="18" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1">
+      <c r="A1255" s="18" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1">
+      <c r="A1256" s="18" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1">
+      <c r="A1257" s="18" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1">
+      <c r="A1258" s="18" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1">
+      <c r="A1259" s="18" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1">
+      <c r="A1260" s="18" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1">
+      <c r="A1261" s="18" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1">
+      <c r="A1262" s="18" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1">
+      <c r="A1263" s="18" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1">
+      <c r="A1264" s="18" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1">
+      <c r="A1265" s="18" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1">
+      <c r="A1266" s="18" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1">
+      <c r="A1267" s="18" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1">
+      <c r="A1268" s="18" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1">
+      <c r="A1269" s="18" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1">
+      <c r="A1270" s="18" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1">
+      <c r="A1271" s="18" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1">
+      <c r="A1272" s="18" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1">
+      <c r="A1273" s="18" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1">
+      <c r="A1274" s="18" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1">
+      <c r="A1275" s="18" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1">
+      <c r="A1276" s="18" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1">
+      <c r="A1277" s="18" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1">
+      <c r="A1278" s="18" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1">
+      <c r="A1279" s="18" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1">
+      <c r="A1280" s="18" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1">
+      <c r="A1281" s="18" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1">
+      <c r="A1282" s="18" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1">
+      <c r="A1283" s="18" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1">
+      <c r="A1284" s="18" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1">
+      <c r="A1285" s="18" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1">
+      <c r="A1286" s="18" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1">
+      <c r="A1287" s="18" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1">
+      <c r="A1288" s="18" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1">
+      <c r="A1289" s="18" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1">
+      <c r="A1290" s="18" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1">
+      <c r="A1291" s="18" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1">
+      <c r="A1292" s="18" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1">
+      <c r="A1293" s="18" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1">
+      <c r="A1294" s="18" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1">
+      <c r="A1295" s="18" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1">
+      <c r="A1296" s="18" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1">
+      <c r="A1297" s="18" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1">
+      <c r="A1298" s="18" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1">
+      <c r="A1299" s="18" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1">
+      <c r="A1300" s="18" t="s">
+        <v>3575</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
